--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="算法统计" sheetId="1" r:id="rId1"/>
-    <sheet name="算子统计" sheetId="2" r:id="rId2"/>
+    <sheet name="算法统计_新" sheetId="3" r:id="rId1"/>
+    <sheet name="算子统计_新" sheetId="4" r:id="rId2"/>
+    <sheet name="算子统计" sheetId="2" r:id="rId3"/>
+    <sheet name="算法统计" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="211">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,159 +115,834 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.逻辑操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行次数/位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.模运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行次数/位宽/模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位+序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA2</t>
+  </si>
+  <si>
+    <t>VA3</t>
+  </si>
+  <si>
+    <t>VA4</t>
+  </si>
+  <si>
+    <t>VB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB2</t>
+  </si>
+  <si>
+    <t>模运算+序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮查表次数/输入位宽/输出位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1/A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/A1（次数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E.置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行次数/输入宽度/输出宽度/数据宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.有限域运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行次数/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法调用比例（同类算子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2,3,4,5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>单轮执行次数/输入数据个数/位宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单轮执行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数据个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮执行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3/B/A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮执行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模运算序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮查表次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限域乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S盒序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限域序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置换序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法调用比例（同类算子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否作为特殊单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法调用比例（同类算子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否级联兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位宽种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应使用比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术:逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以组合设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在算法中出现的频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">移位 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>and</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑操作序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/3/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.逻辑操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.移位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行次数/位宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.模运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行次数/位宽/模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移位+序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA2</t>
-  </si>
-  <si>
-    <t>VA3</t>
-  </si>
-  <si>
-    <t>VA4</t>
-  </si>
-  <si>
-    <t>VB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB2</t>
-  </si>
-  <si>
-    <t>A3/B/A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模运算+序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单轮查表次数/输入位宽/输出位宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1/A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/A1（次数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E.置换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D.替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行次数/输入宽度/输出宽度/数据宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F.有限域运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2^8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2^4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行次数/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法调用比例（同类算子）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{2,3,4,5}</t>
+    <t>not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEED     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPENT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTEA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIPJECT </t>
+  </si>
+  <si>
+    <t>bit置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮查表次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbox-BR:1
+xor-Sbox:1</t>
+  </si>
+  <si>
+    <t>xor-Sbox-BR:1</t>
+  </si>
+  <si>
+    <t>GFM-xor:1
+BR-GFM:1</t>
+  </si>
+  <si>
+    <t>BR-GFM-xor:1</t>
+  </si>
+  <si>
+    <t>字节循环移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-输出位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-输出位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox:1
+gfm-xor:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-48
+32-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub-xor:1
+xor-sub:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sub-xor：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub-xor:1
+xor-sub:1
+xor-sbox:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbox-sub:1
+xor-Sbox:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sub-xor:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm-xor
+xor-mm
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br-gfm-xor:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节移位序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-br
+br-gfm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sb-br
+br-gfm-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^16-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-mm-xor
+xor-mm-ma
+ma-mm-ma
+mm-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox:1
+ma-xor:1
+xor-ma:1
+xor-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-ma
+sbox-ma-xor
+ma-xor-ma
+xor-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-ma
+ma-xor
+xor-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox
+sbox-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-ma
+sbox-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox
+sbox-xor
+xor-xor
+xor-br
+br-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-xor
+sbox-xor-xor
+xor-xor-xor
+xor-xor-br
+xor-br-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-xor-xor
+sbox-xor-xor-xor
+xor-xor-xor-br
+xor-xor-br-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox
+sbox-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">xor-sbox-xor
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-xor
+xor-sbox
+xor-sh
+sh-sbox
+xor-ma
+sbox-xor
+xor-ms
+ma-xor
+ms-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh-xbox
+ma-sh-xbox
+ms-sh-xbox
+sh-sbox-xor
+sh-sbox-ma
+sh-sbox-ms
+ma-ms-xor
+ms-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-sbox
+sbox-xor
+sbox-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-sbox-xor
+xor-sh-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm-xor
+xor-mm
+mm-ma
+ma-mm
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-ms
+ms-ma
+ma-sh
+ms-sh
+xor-ma
+xor-ms
+ma-xor
+ms-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh
+ma-sh
+sh-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh-sbox
+ma-sh-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-sh
+sh-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-sh-xor
+ma-sbox-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-ma
+sh-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-xor-ma
+sbox-sh-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox
+xor-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox-sh
+xor-ma-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-sh
+ma-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox-sh
+xor-ma-sbox
+sbox-sh-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma
+xor-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh-ma
+sh-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox
+sbox-xor
+xor-ma
+xor-xor
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-xor
+xor-xor-sbox
+sbox-xor-xor
+xor-xor-xor
+xor-xor-ma
+xor-ma-sbox
+ma-sbox-xor
+xor-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-xor-sbox-xor
+xor-sobx-xor-xor
+sbox-xor-xor-xor
+xor-xor-xor-ma
+xor-xor-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox
+xor-ma
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox-xor
+xor-ma-xor
+xor-xor-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox
+sobx-xor
+xor-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-xor-xor
+ma-sbox-xor
+xor-xor-sbox
+xor-sbox-xor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,16 +965,85 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -320,29 +1066,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -359,16 +1236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1804307</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431427</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -377,8 +1254,110 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5233307" y="2604407"/>
-          <a:ext cx="4069897" cy="3238501"/>
+          <a:off x="8603877" y="902073"/>
+          <a:ext cx="4397188" cy="4834217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>需要从这个表格中获取的信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>哪些单元需要特殊处理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>特殊单元之间的冲突关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>在延迟允许的情况下将某些逻辑操作和特殊单元进行组合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632732</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909582" y="3061607"/>
+          <a:ext cx="5441497" cy="4200526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,108 +1495,6 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4964206" y="1075764"/>
-          <a:ext cx="4381500" cy="3563470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>需要从这个表格中获取的信息</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t>1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>哪些单元需要特殊处理</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t>2.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>特殊单元之间的冲突关系</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t>3.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>在延迟允许的情况下将某些逻辑操作和特殊单元进行组合</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -913,10 +1790,1342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" thickBottom="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="3" width="9" style="11"/>
+    <col min="4" max="4" width="9" style="22"/>
+    <col min="5" max="13" width="9" style="11"/>
+    <col min="14" max="14" width="18.875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="23.75" style="11" customWidth="1"/>
+    <col min="17" max="21" width="9" style="13"/>
+    <col min="22" max="22" width="15.25" style="13" customWidth="1"/>
+    <col min="23" max="23" width="9" style="13"/>
+    <col min="24" max="33" width="9" style="14"/>
+    <col min="34" max="34" width="14.25" style="14" customWidth="1"/>
+    <col min="35" max="35" width="9" style="14"/>
+    <col min="36" max="38" width="9" style="15"/>
+    <col min="39" max="39" width="17.375" style="15" customWidth="1"/>
+    <col min="40" max="40" width="18.875" style="15" customWidth="1"/>
+    <col min="41" max="41" width="9" style="15"/>
+    <col min="42" max="43" width="9" style="16"/>
+    <col min="44" max="44" width="16.625" style="16" customWidth="1"/>
+    <col min="45" max="45" width="14.875" style="16" customWidth="1"/>
+    <col min="46" max="46" width="9" style="16"/>
+    <col min="47" max="47" width="9" style="10"/>
+    <col min="48" max="48" width="14.75" style="10" customWidth="1"/>
+    <col min="49" max="49" width="16.375" style="10" customWidth="1"/>
+    <col min="50" max="50" width="10.375" style="10" customWidth="1"/>
+    <col min="51" max="51" width="13.75" style="10" customWidth="1"/>
+    <col min="52" max="52" width="9" style="10"/>
+    <col min="53" max="53" width="19.875" style="21" customWidth="1"/>
+    <col min="54" max="54" width="9" style="21"/>
+    <col min="55" max="55" width="11.75" style="21" customWidth="1"/>
+    <col min="56" max="56" width="12.625" style="21" customWidth="1"/>
+    <col min="57" max="57" width="9" style="21"/>
+    <col min="58" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" s="32" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+    </row>
+    <row r="2" spans="1:57" s="32" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD2" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE2" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" s="32" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ3" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV3" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW3" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+    </row>
+    <row r="4" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22">
+        <v>32</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="S4" s="18">
+        <v>1</v>
+      </c>
+      <c r="T4" s="18">
+        <v>32</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>32</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA4" s="21">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="21">
+        <v>32</v>
+      </c>
+      <c r="BC4" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD4" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>32</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="11">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>16</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="X6" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>32</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="X7" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>32</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>32</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN7" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AJ8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="15">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN8" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="122.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" s="13">
+        <v>1</v>
+      </c>
+      <c r="T9" s="13">
+        <v>32</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="X9" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>32</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="15">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN9" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="S10" s="13">
+        <v>1</v>
+      </c>
+      <c r="T10" s="13">
+        <v>32</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="X10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>32</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN10" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="13">
+        <v>1</v>
+      </c>
+      <c r="T11" s="13">
+        <v>32</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="X11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>32</v>
+      </c>
+      <c r="AG11" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH11" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="11">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="X12" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>32</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH12" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL12" s="15">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN12" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2</v>
+      </c>
+      <c r="L19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="X1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="9" style="7"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.34481481481481485</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.1328125</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -953,336 +3162,176 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I1:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="U2:U5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="264">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,6 +943,268 @@
 ma-sbox-xor
 xor-xor-sbox
 xor-sbox-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh
+sh-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-ma
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GF-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-xor
+xor-sbox
+sh-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-xor-sbox
+xor-sbox-sh
+sbox-sh-xor
+sh-xor-xor
+xor-xor-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-xor-xor-xor
+xor-xor-xor-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-sh-xor
+sh-xor-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox
+sbox-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">xor-xor-sbox
+xor-sbox-sh
+sbox-sh-xor
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-sh
+sh-ma
+ma-sh
+sbox-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma-sh
+ma-sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma
+ma-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma-sh
+ma-sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox
+sbox-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-xor
+xor-ma
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-xor-ma
+ma-ma-xor
+xor-ma-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-xor-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-ma
+ma-ma
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-ma-ma
+ma-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-ma
+ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-xor-ma
+xor-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^33</t>
+  </si>
+  <si>
+    <t>sh-ma
+ma-xor
+xor-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma-xor
+ma-xor-ma
+xor-ma-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-xor
+sbox-xor
+xor-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox-xor
+xor-xor-xor
+xor-xor-sbox
+sbox-xor-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-xor
+xor-sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-xor-sbox
+xor-sbox-xor
+sbox-xor-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh
+sh-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-xor-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-sh
+sh-xor
+xor-sh
+sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-sh-xor
+sh-xor-sh
+xor-sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox
+sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sh-ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma-sbox
+sbox-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox-sh-xor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,12 +1370,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1156,33 +1412,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1203,6 +1432,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,116 +2054,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" thickBottom="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="9" style="22"/>
-    <col min="5" max="13" width="9" style="11"/>
-    <col min="14" max="14" width="18.875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="23.75" style="11" customWidth="1"/>
-    <col min="17" max="21" width="9" style="13"/>
-    <col min="22" max="22" width="15.25" style="13" customWidth="1"/>
-    <col min="23" max="23" width="9" style="13"/>
-    <col min="24" max="33" width="9" style="14"/>
-    <col min="34" max="34" width="14.25" style="14" customWidth="1"/>
-    <col min="35" max="35" width="9" style="14"/>
-    <col min="36" max="38" width="9" style="15"/>
-    <col min="39" max="39" width="17.375" style="15" customWidth="1"/>
-    <col min="40" max="40" width="18.875" style="15" customWidth="1"/>
-    <col min="41" max="41" width="9" style="15"/>
-    <col min="42" max="43" width="9" style="16"/>
-    <col min="44" max="44" width="16.625" style="16" customWidth="1"/>
-    <col min="45" max="45" width="14.875" style="16" customWidth="1"/>
-    <col min="46" max="46" width="9" style="16"/>
-    <col min="47" max="47" width="9" style="10"/>
-    <col min="48" max="48" width="14.75" style="10" customWidth="1"/>
-    <col min="49" max="49" width="16.375" style="10" customWidth="1"/>
-    <col min="50" max="50" width="10.375" style="10" customWidth="1"/>
-    <col min="51" max="51" width="13.75" style="10" customWidth="1"/>
-    <col min="52" max="52" width="9" style="10"/>
-    <col min="53" max="53" width="19.875" style="21" customWidth="1"/>
-    <col min="54" max="54" width="9" style="21"/>
-    <col min="55" max="55" width="11.75" style="21" customWidth="1"/>
-    <col min="56" max="56" width="12.625" style="21" customWidth="1"/>
-    <col min="57" max="57" width="9" style="21"/>
-    <col min="58" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="3" width="9" style="9"/>
+    <col min="4" max="4" width="9" style="20"/>
+    <col min="5" max="13" width="9" style="9"/>
+    <col min="14" max="14" width="18.875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="23.75" style="9" customWidth="1"/>
+    <col min="17" max="21" width="9" style="11"/>
+    <col min="22" max="22" width="15.25" style="11" customWidth="1"/>
+    <col min="23" max="23" width="9" style="11"/>
+    <col min="24" max="33" width="9" style="12"/>
+    <col min="34" max="34" width="14.25" style="12" customWidth="1"/>
+    <col min="35" max="35" width="9" style="12"/>
+    <col min="36" max="38" width="9" style="13"/>
+    <col min="39" max="39" width="17.375" style="13" customWidth="1"/>
+    <col min="40" max="40" width="18.875" style="13" customWidth="1"/>
+    <col min="41" max="41" width="9" style="13"/>
+    <col min="42" max="43" width="9" style="14"/>
+    <col min="44" max="44" width="16.625" style="14" customWidth="1"/>
+    <col min="45" max="45" width="14.875" style="14" customWidth="1"/>
+    <col min="46" max="46" width="9" style="14"/>
+    <col min="47" max="47" width="9" style="8"/>
+    <col min="48" max="48" width="14.75" style="8" customWidth="1"/>
+    <col min="49" max="49" width="16.375" style="8" customWidth="1"/>
+    <col min="50" max="50" width="10.375" style="8" customWidth="1"/>
+    <col min="51" max="51" width="13.75" style="8" customWidth="1"/>
+    <col min="52" max="52" width="9" style="8"/>
+    <col min="53" max="53" width="19.875" style="19" customWidth="1"/>
+    <col min="54" max="54" width="9" style="19"/>
+    <col min="55" max="55" width="11.75" style="19" customWidth="1"/>
+    <col min="56" max="56" width="12.625" style="19" customWidth="1"/>
+    <col min="57" max="57" width="9" style="19"/>
+    <col min="58" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="32" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:57" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27" t="s">
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28" t="s">
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="29" t="s">
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29" t="s">
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
       <c r="AU1" s="30" t="s">
         <v>98</v>
       </c>
@@ -1912,120 +2174,120 @@
       </c>
       <c r="AY1" s="30"/>
       <c r="AZ1" s="30"/>
-      <c r="BA1" s="31" t="s">
+      <c r="BA1" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31" t="s">
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-    </row>
-    <row r="2" spans="1:57" s="32" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+    </row>
+    <row r="2" spans="1:57" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="34" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AH2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" s="34" t="s">
+      <c r="AI2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AJ2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28" t="s">
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="28" t="s">
+      <c r="AN2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AO2" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="33" t="s">
         <v>76</v>
       </c>
       <c r="AU2" s="30" t="s">
         <v>133</v>
       </c>
       <c r="AV2" s="30"/>
-      <c r="AW2" s="35" t="s">
+      <c r="AW2" s="24" t="s">
         <v>134</v>
       </c>
       <c r="AX2" s="30" t="s">
@@ -2037,762 +2299,981 @@
       <c r="AZ2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="BA2" s="31" t="s">
+      <c r="BA2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BB2" s="31" t="s">
+      <c r="BB2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="31" t="s">
+      <c r="BC2" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="BD2" s="31" t="s">
+      <c r="BD2" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="BE2" s="31" t="s">
+      <c r="BE2" s="29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="32" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="1:57" s="21" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="33" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="38" t="s">
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AK3" s="38" t="s">
+      <c r="AK3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AL3" s="38" t="s">
+      <c r="AL3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="39" t="s">
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AQ3" s="39" t="s">
+      <c r="AQ3" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="35" t="s">
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="35" t="s">
+      <c r="AV3" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="AW3" s="35" t="s">
+      <c r="AW3" s="24" t="s">
         <v>145</v>
       </c>
       <c r="AX3" s="30"/>
       <c r="AY3" s="30"/>
       <c r="AZ3" s="30"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
     </row>
     <row r="4" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>32</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="16">
         <v>1</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="16">
         <v>32</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AJ4" s="15">
+      <c r="AJ4" s="13">
         <v>1</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="13">
         <v>8</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="AL4" s="13">
         <v>8</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AM4" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AN4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AP4" s="16">
+      <c r="AP4" s="14">
         <v>1</v>
       </c>
-      <c r="AQ4" s="16">
+      <c r="AQ4" s="14">
         <v>32</v>
       </c>
-      <c r="AR4" s="16" t="s">
+      <c r="AR4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AS4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="AW4" s="20" t="s">
+      <c r="AW4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="BA4" s="21">
+      <c r="BA4" s="19">
         <v>1</v>
       </c>
-      <c r="BB4" s="21">
+      <c r="BB4" s="19">
         <v>32</v>
       </c>
-      <c r="BC4" s="21" t="s">
+      <c r="BC4" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="BD4" s="21" t="s">
+      <c r="BD4" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AJ5" s="13">
         <v>1</v>
       </c>
-      <c r="AK5" s="15">
+      <c r="AK5" s="13">
         <v>6</v>
       </c>
-      <c r="AL5" s="15">
+      <c r="AL5" s="13">
         <v>4</v>
       </c>
-      <c r="AM5" s="15" t="s">
+      <c r="AM5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AU5" s="8">
         <v>2</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AX5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>16</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="12">
         <v>2</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="12">
         <v>16</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="12">
         <v>3</v>
       </c>
-      <c r="AE6" s="14" t="s">
+      <c r="AE6" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="12">
         <v>16</v>
       </c>
-      <c r="AG6" s="14" t="s">
+      <c r="AG6" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="AH6" s="14" t="s">
+      <c r="AH6" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:57" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>32</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="12">
         <v>2</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="12">
         <v>32</v>
       </c>
-      <c r="AG7" s="14" t="s">
+      <c r="AG7" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AH7" s="14" t="s">
+      <c r="AH7" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AJ7" s="15">
+      <c r="AJ7" s="13">
         <v>1</v>
       </c>
-      <c r="AK7" s="15">
+      <c r="AK7" s="13">
         <v>8</v>
       </c>
-      <c r="AL7" s="15">
+      <c r="AL7" s="13">
         <v>32</v>
       </c>
-      <c r="AM7" s="15" t="s">
+      <c r="AM7" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="AN7" s="15" t="s">
+      <c r="AN7" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AJ8" s="15">
+      <c r="AJ8" s="13">
         <v>1</v>
       </c>
-      <c r="AK8" s="15">
+      <c r="AK8" s="13">
         <v>8</v>
       </c>
-      <c r="AL8" s="15">
+      <c r="AL8" s="13">
         <v>8</v>
       </c>
-      <c r="AM8" s="15" t="s">
+      <c r="AM8" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AN8" s="15" t="s">
+      <c r="AN8" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="122.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="11">
         <v>1</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="11">
         <v>32</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="12">
         <v>32</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA9" s="12">
         <v>2</v>
       </c>
-      <c r="AB9" s="14" t="s">
+      <c r="AB9" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="12">
         <v>32</v>
       </c>
-      <c r="AG9" s="14" t="s">
+      <c r="AG9" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="AJ9" s="15">
+      <c r="AJ9" s="13">
         <v>1</v>
       </c>
-      <c r="AK9" s="15">
+      <c r="AK9" s="13">
         <v>8</v>
       </c>
-      <c r="AL9" s="15">
+      <c r="AL9" s="13">
         <v>8</v>
       </c>
-      <c r="AM9" s="15" t="s">
+      <c r="AM9" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="AN9" s="15" t="s">
+      <c r="AN9" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="11">
         <v>1</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="11">
         <v>32</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="12">
         <v>1</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z10" s="12">
         <v>32</v>
       </c>
-      <c r="AG10" s="14" t="s">
+      <c r="AG10" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AH10" s="14" t="s">
+      <c r="AH10" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AJ10" s="15">
+      <c r="AJ10" s="13">
         <v>1</v>
       </c>
-      <c r="AK10" s="15">
+      <c r="AK10" s="13">
         <v>4</v>
       </c>
-      <c r="AL10" s="15">
+      <c r="AL10" s="13">
         <v>4</v>
       </c>
-      <c r="AM10" s="15" t="s">
+      <c r="AM10" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="AN10" s="15" t="s">
+      <c r="AN10" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="11">
         <v>32</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="12">
         <v>1</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="12">
         <v>32</v>
       </c>
-      <c r="AG11" s="14" t="s">
+      <c r="AG11" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="AH11" s="14" t="s">
+      <c r="AH11" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:57" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>12</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>2</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="12">
         <v>3</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z12" s="12">
         <v>32</v>
       </c>
-      <c r="AG12" s="14" t="s">
+      <c r="AG12" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="14" t="s">
+      <c r="AH12" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AJ12" s="15">
+      <c r="AJ12" s="13">
         <v>1</v>
       </c>
-      <c r="AK12" s="15">
+      <c r="AK12" s="13">
         <v>8</v>
       </c>
-      <c r="AL12" s="15">
+      <c r="AL12" s="13">
         <v>8</v>
       </c>
-      <c r="AM12" s="15" t="s">
+      <c r="AM12" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="AN12" s="15" t="s">
+      <c r="AN12" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="S13" s="11">
         <v>1</v>
       </c>
-      <c r="I13" s="11">
+      <c r="T13" s="11">
+        <v>32</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="X13" s="12">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>32</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="14">
+        <v>32</v>
+      </c>
+      <c r="AR13" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="L13" s="11">
+      <c r="D14" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>1</v>
+      </c>
+      <c r="R14" s="11">
+        <v>32</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="D15" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S15" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="11">
+      <c r="T15" s="11">
+        <v>32</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="X15" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>32</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ15" s="13">
         <v>1</v>
       </c>
-      <c r="I14" s="11">
+      <c r="AM15" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN15" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="L14" s="11">
+      <c r="D16" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q16" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="R16" s="11">
+        <v>32</v>
+      </c>
+      <c r="S16" s="11">
+        <v>3</v>
+      </c>
+      <c r="T16" s="11">
+        <v>32</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="X16" s="12">
         <v>2</v>
       </c>
-      <c r="F15" s="11">
+      <c r="Y16" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>32</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ16" s="13">
         <v>1</v>
       </c>
-      <c r="I15" s="11">
+      <c r="AK16" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN16" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="L15" s="11">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="D17" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>32</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="X17" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="Y17" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>32</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q18" s="11">
         <v>1</v>
       </c>
-      <c r="I16" s="11">
+      <c r="R18" s="11">
+        <v>32</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="X18" s="12">
         <v>2</v>
       </c>
-      <c r="L16" s="11">
+      <c r="Y18" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>32</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
-        <v>2</v>
-      </c>
-      <c r="L17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11">
-        <v>2</v>
-      </c>
-      <c r="L18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11">
-        <v>2</v>
-      </c>
-      <c r="L19" s="11">
-        <v>2</v>
+      <c r="D19" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM19" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN19" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2813,8 +3294,6 @@
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:M1"/>
@@ -2835,6 +3314,8 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="BB2:BB3"/>
     <mergeCell ref="BA2:BA3"/>
@@ -2853,7 +3334,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2864,48 +3345,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="39" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -2978,44 +3459,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3028,14 +3509,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="308">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单轮查表次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入位宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算术:逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否可以组合设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,23 +455,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">移位 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>and</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,11 +559,6 @@
   <si>
     <t>xor-sbox:1
 gfm-xor:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32-48
-32-32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,10 +605,6 @@
   </si>
   <si>
     <t>移位序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节移位序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1037,11 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sh-ma
-ma-sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sh-ma-sh
 ma-sh-ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,14 +1135,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sbox-sh
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节循环移位序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限域乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm-sh
 sh-xor
 xor-sh
 sh-ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sbox-sh-xor
+    <t>mm-sh-xor
 sh-xor-sh
 xor-sh-ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,21 +1204,208 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ma-sbox
+    <t>sh-ma
+ma-sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm-sh
 sh-ma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xor-sh-ma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma-sbox
-sbox-sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbox-sh-xor</t>
+    <t>ma-br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh-ma-br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^16:2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^16-1:2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右移位\左右循环移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1:6:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128-128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64-64：
+32-48：
+32-32：
+128-128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1:1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-4:
+6-4:
+8-8: 
+8-32  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定算法优化支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES：X2有限域乘法优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC6:*2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64-64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+32-48
+32-32</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮执行次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,7 +1413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,6 +1430,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1238,7 +1463,7 @@
     <font>
       <i/>
       <u/>
-      <sz val="11"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1246,16 +1471,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1304,8 +1528,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1343,11 +1591,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1358,113 +1728,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,6 +1958,189 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4330</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4330" y="13933343"/>
+          <a:ext cx="5453495" cy="1535257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>红色数据表示非算法轮中的操作（一般为初始置换和最终置换）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="2019300"/>
+          <a:ext cx="3314700" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>特定算法优化支持：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有限域乘法优化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RC6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*2+1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1596,7 +2242,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2054,1226 +2700,1264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" thickBottom="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="27.75" thickBottom="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="3" width="9" style="9"/>
-    <col min="4" max="4" width="9" style="20"/>
-    <col min="5" max="13" width="9" style="9"/>
-    <col min="14" max="14" width="18.875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="23.75" style="9" customWidth="1"/>
-    <col min="17" max="21" width="9" style="11"/>
-    <col min="22" max="22" width="15.25" style="11" customWidth="1"/>
-    <col min="23" max="23" width="9" style="11"/>
-    <col min="24" max="33" width="9" style="12"/>
-    <col min="34" max="34" width="14.25" style="12" customWidth="1"/>
-    <col min="35" max="35" width="9" style="12"/>
-    <col min="36" max="38" width="9" style="13"/>
-    <col min="39" max="39" width="17.375" style="13" customWidth="1"/>
-    <col min="40" max="40" width="18.875" style="13" customWidth="1"/>
-    <col min="41" max="41" width="9" style="13"/>
-    <col min="42" max="43" width="9" style="14"/>
-    <col min="44" max="44" width="16.625" style="14" customWidth="1"/>
-    <col min="45" max="45" width="14.875" style="14" customWidth="1"/>
-    <col min="46" max="46" width="9" style="14"/>
-    <col min="47" max="47" width="9" style="8"/>
-    <col min="48" max="48" width="14.75" style="8" customWidth="1"/>
-    <col min="49" max="49" width="16.375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="10.375" style="8" customWidth="1"/>
-    <col min="51" max="51" width="13.75" style="8" customWidth="1"/>
-    <col min="52" max="52" width="9" style="8"/>
-    <col min="53" max="53" width="19.875" style="19" customWidth="1"/>
-    <col min="54" max="54" width="9" style="19"/>
-    <col min="55" max="55" width="11.75" style="19" customWidth="1"/>
-    <col min="56" max="56" width="12.625" style="19" customWidth="1"/>
-    <col min="57" max="57" width="9" style="19"/>
-    <col min="58" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="20.125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="61" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="62" customWidth="1"/>
+    <col min="5" max="5" width="14" style="61" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="61" customWidth="1"/>
+    <col min="7" max="7" width="14" style="61" customWidth="1"/>
+    <col min="8" max="9" width="16" style="61" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="61" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="61" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="61" customWidth="1"/>
+    <col min="13" max="13" width="14" style="61" customWidth="1"/>
+    <col min="14" max="14" width="26.875" style="61" customWidth="1"/>
+    <col min="15" max="15" width="28.125" style="61" customWidth="1"/>
+    <col min="16" max="16" width="34.625" style="61" customWidth="1"/>
+    <col min="17" max="17" width="16.875" style="57" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="57" customWidth="1"/>
+    <col min="19" max="20" width="16.5" style="57" customWidth="1"/>
+    <col min="21" max="21" width="22.625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="22.25" style="57" customWidth="1"/>
+    <col min="23" max="23" width="19.5" style="57" customWidth="1"/>
+    <col min="24" max="24" width="16.25" style="64" customWidth="1"/>
+    <col min="25" max="25" width="9" style="64" customWidth="1"/>
+    <col min="26" max="26" width="10.625" style="64" customWidth="1"/>
+    <col min="27" max="27" width="14.125" style="64" customWidth="1"/>
+    <col min="28" max="28" width="9" style="64"/>
+    <col min="29" max="29" width="11.75" style="64" customWidth="1"/>
+    <col min="30" max="30" width="15.375" style="64" customWidth="1"/>
+    <col min="31" max="31" width="9" style="64"/>
+    <col min="32" max="32" width="12" style="64" customWidth="1"/>
+    <col min="33" max="33" width="22.25" style="64" customWidth="1"/>
+    <col min="34" max="34" width="26.5" style="64" customWidth="1"/>
+    <col min="35" max="35" width="25.125" style="64" customWidth="1"/>
+    <col min="36" max="36" width="16.75" style="65" customWidth="1"/>
+    <col min="37" max="37" width="18.75" style="65" customWidth="1"/>
+    <col min="38" max="38" width="19.5" style="65" customWidth="1"/>
+    <col min="39" max="39" width="29.375" style="65" customWidth="1"/>
+    <col min="40" max="40" width="27.25" style="65" customWidth="1"/>
+    <col min="41" max="41" width="16.75" style="65" customWidth="1"/>
+    <col min="42" max="42" width="16.5" style="66" customWidth="1"/>
+    <col min="43" max="43" width="19.625" style="66" customWidth="1"/>
+    <col min="44" max="44" width="23.875" style="66" customWidth="1"/>
+    <col min="45" max="45" width="26.25" style="66" customWidth="1"/>
+    <col min="46" max="46" width="27.625" style="66" customWidth="1"/>
+    <col min="47" max="47" width="17.875" style="67" customWidth="1"/>
+    <col min="48" max="48" width="18.875" style="67" customWidth="1"/>
+    <col min="49" max="49" width="16.375" style="67" customWidth="1"/>
+    <col min="50" max="50" width="22.625" style="67" customWidth="1"/>
+    <col min="51" max="51" width="26.875" style="67" customWidth="1"/>
+    <col min="52" max="52" width="26.75" style="67" customWidth="1"/>
+    <col min="53" max="53" width="19.875" style="69" customWidth="1"/>
+    <col min="54" max="54" width="14.25" style="69" customWidth="1"/>
+    <col min="55" max="55" width="28" style="69" customWidth="1"/>
+    <col min="56" max="56" width="26.625" style="69" customWidth="1"/>
+    <col min="57" max="57" width="23.125" style="69" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:57" s="51" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+    </row>
+    <row r="2" spans="1:57" s="51" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="45"/>
+      <c r="U2" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT2" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX2" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD2" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE2" s="50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" s="51" customFormat="1" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL3" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV3" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW3" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
+    </row>
+    <row r="4" spans="1:57" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="61">
+        <v>1</v>
+      </c>
+      <c r="C4" s="61">
+        <v>2</v>
+      </c>
+      <c r="D4" s="62">
+        <v>32</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" s="63">
+        <v>1</v>
+      </c>
+      <c r="T4" s="63">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="65">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="65">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN4" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP4" s="66">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="66">
+        <v>32</v>
+      </c>
+      <c r="AR4" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS4" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW4" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA4" s="69">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="69">
+        <v>32</v>
+      </c>
+      <c r="BC4" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD4" s="69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="162.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="61">
+        <v>2</v>
+      </c>
+      <c r="C5" s="61">
+        <v>2</v>
+      </c>
+      <c r="D5" s="62">
+        <v>32</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ5" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="65">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="65">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU5" s="67">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="AX5" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY5" s="67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="270.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="61">
+        <v>6</v>
+      </c>
+      <c r="C6" s="61">
+        <v>2</v>
+      </c>
+      <c r="D6" s="62">
+        <v>16</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="X6" s="64">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="34" t="s">
+      <c r="Z6" s="64">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="64">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29" t="s">
+      <c r="AF6" s="64">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH6" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-    </row>
-    <row r="2" spans="1:57" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS2" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU2" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX2" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB2" s="29" t="s">
+    </row>
+    <row r="7" spans="1:57" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="61">
         <v>3</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="C7" s="61">
+        <v>2</v>
+      </c>
+      <c r="D7" s="62">
+        <v>32</v>
+      </c>
+      <c r="N7" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="O7" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="X7" s="64">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="64" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" s="21" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK3" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ3" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW3" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="29"/>
-    </row>
-    <row r="4" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="Z7" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG7" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH7" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ7" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="65">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="65">
+        <v>32</v>
+      </c>
+      <c r="AM7" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN7" s="65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="297.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="61">
+        <v>6</v>
+      </c>
+      <c r="C8" s="61">
+        <v>2</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ8" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="65">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="65">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN8" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="61">
+        <v>3</v>
+      </c>
+      <c r="C9" s="61">
+        <v>2</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="57">
+        <v>1</v>
+      </c>
+      <c r="T9" s="57">
+        <v>32</v>
+      </c>
+      <c r="U9" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="V9" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="64">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z9" s="64">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="64">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC9" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG9" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ9" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="65">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="65">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN9" s="65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B10" s="61">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C10" s="61">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D10" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10" s="57">
+        <v>1</v>
+      </c>
+      <c r="T10" s="57">
         <v>32</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="S4" s="16">
+      <c r="U10" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" s="64">
         <v>1</v>
       </c>
-      <c r="T4" s="16">
+      <c r="Y10" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z10" s="64">
         <v>32</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AG10" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH10" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ10" s="65">
         <v>1</v>
       </c>
-      <c r="AK4" s="13">
+      <c r="AK10" s="65">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="65">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN10" s="65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="61">
+        <v>1</v>
+      </c>
+      <c r="C11" s="61">
+        <v>2</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11" s="57">
+        <v>1</v>
+      </c>
+      <c r="T11" s="57">
+        <v>32</v>
+      </c>
+      <c r="U11" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="V11" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="X11" s="64">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z11" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG11" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH11" s="64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="61">
+        <v>12</v>
+      </c>
+      <c r="C12" s="61">
+        <v>2</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="X12" s="64">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z12" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG12" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH12" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ12" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="65">
         <v>8</v>
       </c>
-      <c r="AL4" s="13">
+      <c r="AL12" s="65">
         <v>8</v>
       </c>
-      <c r="AM4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP4" s="14">
+      <c r="AM12" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN12" s="65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="61">
+        <v>2</v>
+      </c>
+      <c r="C13" s="61">
+        <v>2</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="57">
         <v>1</v>
       </c>
-      <c r="AQ4" s="14">
+      <c r="T13" s="57">
         <v>32</v>
       </c>
-      <c r="AR4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AW4" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA4" s="19">
+      <c r="U13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="X13" s="64">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z13" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG13" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ13" s="65">
         <v>1</v>
       </c>
-      <c r="BB4" s="19">
+      <c r="AK13" s="65">
+        <v>8</v>
+      </c>
+      <c r="AL13" s="65">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP13" s="66">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="66">
         <v>32</v>
       </c>
-      <c r="BC4" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD4" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="AR13" s="66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="297.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="61">
+        <v>6</v>
+      </c>
+      <c r="C14" s="61">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D14" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>1</v>
+      </c>
+      <c r="R14" s="57">
+        <v>32</v>
+      </c>
+      <c r="U14" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="V14" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ14" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="65">
+        <v>8</v>
+      </c>
+      <c r="AL14" s="65">
+        <v>8</v>
+      </c>
+      <c r="AM14" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN14" s="65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="61">
+        <v>1</v>
+      </c>
+      <c r="C15" s="61">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D15" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="57">
+        <v>2</v>
+      </c>
+      <c r="T15" s="57">
         <v>32</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ5" s="13">
+      <c r="U15" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="V15" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="X15" s="64">
         <v>1</v>
       </c>
-      <c r="AK5" s="13">
-        <v>6</v>
-      </c>
-      <c r="AL5" s="13">
+      <c r="Y15" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z15" s="64">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="64">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF15" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG15" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH15" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA15" s="69">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="69">
+        <v>32</v>
+      </c>
+      <c r="BC15" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD15" s="69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="61">
+        <v>1</v>
+      </c>
+      <c r="C16" s="61">
+        <v>2</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>2</v>
+      </c>
+      <c r="R16" s="57">
+        <v>32</v>
+      </c>
+      <c r="S16" s="57">
+        <v>3</v>
+      </c>
+      <c r="T16" s="57">
+        <v>32</v>
+      </c>
+      <c r="U16" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="V16" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="X16" s="64">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z16" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG16" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH16" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ16" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="65">
         <v>4</v>
       </c>
-      <c r="AM5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU5" s="8">
+      <c r="AL16" s="65">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN16" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV16" s="70" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="162.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="61">
         <v>2</v>
       </c>
-      <c r="AV5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AY5" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="9">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="C17" s="61">
         <v>2</v>
       </c>
-      <c r="D6" s="20">
-        <v>16</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X6" s="12">
+      <c r="D17" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" s="57">
+        <v>1</v>
+      </c>
+      <c r="R17" s="57">
+        <v>32</v>
+      </c>
+      <c r="U17" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="V17" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="X17" s="64">
         <v>2</v>
       </c>
-      <c r="Y6" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>16</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>16</v>
-      </c>
-      <c r="AG6" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH6" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="Y17" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z17" s="64">
+        <v>32</v>
+      </c>
+      <c r="AG17" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH17" s="64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="162.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="61">
         <v>2</v>
       </c>
-      <c r="D7" s="20">
+      <c r="C18" s="61">
+        <v>2</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q18" s="57">
+        <v>1</v>
+      </c>
+      <c r="R18" s="57">
         <v>32</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="X7" s="12">
+      <c r="U18" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="X18" s="64">
         <v>2</v>
       </c>
-      <c r="Y7" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z7" s="12">
+      <c r="Y18" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z18" s="64">
         <v>32</v>
       </c>
-      <c r="AG7" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH7" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL7" s="13">
-        <v>32</v>
-      </c>
-      <c r="AM7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN7" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="9">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="AG18" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH18" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="270.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="61">
+        <v>10</v>
+      </c>
+      <c r="C19" s="61">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL8" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM8" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN8" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" ht="122.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="S9" s="11">
-        <v>1</v>
-      </c>
-      <c r="T9" s="11">
-        <v>32</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="X9" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG9" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL9" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM9" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN9" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="S10" s="11">
-        <v>1</v>
-      </c>
-      <c r="T10" s="11">
-        <v>32</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="X10" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH10" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ10" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="13">
-        <v>4</v>
-      </c>
-      <c r="AL10" s="13">
-        <v>4</v>
-      </c>
-      <c r="AM10" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN10" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="S11" s="11">
-        <v>1</v>
-      </c>
-      <c r="T11" s="11">
-        <v>32</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="X11" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG11" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH11" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="9">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="X12" s="12">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH12" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM12" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN12" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="S13" s="11">
-        <v>1</v>
-      </c>
-      <c r="T13" s="11">
-        <v>32</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="X13" s="12">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG13" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM13" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>32</v>
-      </c>
-      <c r="AR13" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="9">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>1</v>
-      </c>
-      <c r="R14" s="11">
-        <v>32</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM14" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN14" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="S15" s="11">
-        <v>2</v>
-      </c>
-      <c r="T15" s="11">
-        <v>32</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="X15" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z15" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG15" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN15" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>2</v>
-      </c>
-      <c r="R16" s="11">
-        <v>32</v>
-      </c>
-      <c r="S16" s="11">
-        <v>3</v>
-      </c>
-      <c r="T16" s="11">
-        <v>32</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="X16" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG16" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH16" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>4</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN16" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>1</v>
-      </c>
-      <c r="R17" s="11">
-        <v>32</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="X17" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG17" s="12" t="s">
+      <c r="D19" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="AH17" s="12" t="s">
+      <c r="N19" s="61" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="N18" s="9" t="s">
+      <c r="O19" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="AM19" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="Q18" s="11">
-        <v>1</v>
-      </c>
-      <c r="R18" s="11">
-        <v>32</v>
-      </c>
-      <c r="U18" s="11" t="s">
+      <c r="AN19" s="65" t="s">
         <v>244</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="X18" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>32</v>
-      </c>
-      <c r="AG18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH18" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="9">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM19" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="AN19" s="13" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3326,115 +4010,445 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="9" style="7"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="4" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14"/>
+    <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
+    <col min="7" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="9" style="11"/>
+    <col min="10" max="10" width="9" style="12"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="38" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="D2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.34481481481481485</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.1328125</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>115</v>
+      <c r="C3" s="6">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="6">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="6">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="6">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="F14" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="6">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="16">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
+  <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E34">
+      <formula1>"是 否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E31 I3:I22 H3:H21">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3443,7 +4457,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3459,44 +4473,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3509,14 +4523,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
@@ -3564,7 +4578,7 @@
     </row>
     <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
         <v>45</v>
@@ -3577,7 +4591,7 @@
     </row>
     <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="328">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
   </si>
   <si>
     <t>AND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -676,14 +672,6 @@
   <si>
     <t>xor-sbox-ma
 sbox-ma-xor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xor-sbox
-sbox-xor
-xor-xor
-xor-br
-br-xor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1116,12 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xor-xor-sbox
-xor-sbox-xor
-sbox-xor-xor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,14 +1196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ma-br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh-ma-br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,10 +1345,6 @@
   </si>
   <si>
     <t>AES：X2有限域乘法优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC6:*2+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1406,6 +1376,116 @@
   </si>
   <si>
     <t>单轮执行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC6:*2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-sbox
+sbox-xor
+xor-xor
+xor-br
+br-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限域乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-mm-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor-xor-sbox
+xor-sbox-xor
+sbox-xor-xor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1717,7 +1797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1773,6 +1853,165 @@
     <xf numFmtId="49" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1791,142 +2030,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1961,15 +2071,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4330</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>179243</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409142</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>226868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1157288</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1979,8 +2089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4330" y="13933343"/>
-          <a:ext cx="5453495" cy="1535257"/>
+          <a:off x="9386455" y="30254431"/>
+          <a:ext cx="9630208" cy="3787919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2698,1314 +2808,1470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE19"/>
+  <dimension ref="A1:BF30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" thickBottom="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="61" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="62" customWidth="1"/>
-    <col min="5" max="5" width="14" style="61" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="61" customWidth="1"/>
-    <col min="7" max="7" width="14" style="61" customWidth="1"/>
-    <col min="8" max="9" width="16" style="61" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="61" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="61" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="61" customWidth="1"/>
-    <col min="13" max="13" width="14" style="61" customWidth="1"/>
-    <col min="14" max="14" width="26.875" style="61" customWidth="1"/>
-    <col min="15" max="15" width="28.125" style="61" customWidth="1"/>
-    <col min="16" max="16" width="34.625" style="61" customWidth="1"/>
-    <col min="17" max="17" width="16.875" style="57" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="57" customWidth="1"/>
-    <col min="19" max="20" width="16.5" style="57" customWidth="1"/>
-    <col min="21" max="21" width="22.625" style="57" customWidth="1"/>
-    <col min="22" max="22" width="22.25" style="57" customWidth="1"/>
-    <col min="23" max="23" width="19.5" style="57" customWidth="1"/>
-    <col min="24" max="24" width="16.25" style="64" customWidth="1"/>
-    <col min="25" max="25" width="9" style="64" customWidth="1"/>
-    <col min="26" max="26" width="10.625" style="64" customWidth="1"/>
-    <col min="27" max="27" width="14.125" style="64" customWidth="1"/>
-    <col min="28" max="28" width="9" style="64"/>
-    <col min="29" max="29" width="11.75" style="64" customWidth="1"/>
-    <col min="30" max="30" width="15.375" style="64" customWidth="1"/>
-    <col min="31" max="31" width="9" style="64"/>
-    <col min="32" max="32" width="12" style="64" customWidth="1"/>
-    <col min="33" max="33" width="22.25" style="64" customWidth="1"/>
-    <col min="34" max="34" width="26.5" style="64" customWidth="1"/>
-    <col min="35" max="35" width="25.125" style="64" customWidth="1"/>
-    <col min="36" max="36" width="16.75" style="65" customWidth="1"/>
-    <col min="37" max="37" width="18.75" style="65" customWidth="1"/>
-    <col min="38" max="38" width="19.5" style="65" customWidth="1"/>
-    <col min="39" max="39" width="29.375" style="65" customWidth="1"/>
-    <col min="40" max="40" width="27.25" style="65" customWidth="1"/>
-    <col min="41" max="41" width="16.75" style="65" customWidth="1"/>
-    <col min="42" max="42" width="16.5" style="66" customWidth="1"/>
-    <col min="43" max="43" width="19.625" style="66" customWidth="1"/>
-    <col min="44" max="44" width="23.875" style="66" customWidth="1"/>
-    <col min="45" max="45" width="26.25" style="66" customWidth="1"/>
-    <col min="46" max="46" width="27.625" style="66" customWidth="1"/>
-    <col min="47" max="47" width="17.875" style="67" customWidth="1"/>
-    <col min="48" max="48" width="18.875" style="67" customWidth="1"/>
-    <col min="49" max="49" width="16.375" style="67" customWidth="1"/>
-    <col min="50" max="50" width="22.625" style="67" customWidth="1"/>
-    <col min="51" max="51" width="26.875" style="67" customWidth="1"/>
-    <col min="52" max="52" width="26.75" style="67" customWidth="1"/>
-    <col min="53" max="53" width="19.875" style="69" customWidth="1"/>
-    <col min="54" max="54" width="14.25" style="69" customWidth="1"/>
-    <col min="55" max="55" width="28" style="69" customWidth="1"/>
-    <col min="56" max="56" width="26.625" style="69" customWidth="1"/>
-    <col min="57" max="57" width="23.125" style="69" customWidth="1"/>
-    <col min="58" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="20.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="32" customWidth="1"/>
+    <col min="6" max="6" width="14" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14" style="31" customWidth="1"/>
+    <col min="9" max="10" width="16" style="31" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="31" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="31" customWidth="1"/>
+    <col min="14" max="14" width="14" style="31" customWidth="1"/>
+    <col min="15" max="15" width="26.875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="28.125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="34.625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="16.875" style="27" customWidth="1"/>
+    <col min="19" max="19" width="15.875" style="27" customWidth="1"/>
+    <col min="20" max="21" width="16.5" style="27" customWidth="1"/>
+    <col min="22" max="22" width="22.625" style="27" customWidth="1"/>
+    <col min="23" max="23" width="22.25" style="27" customWidth="1"/>
+    <col min="24" max="24" width="19.5" style="27" customWidth="1"/>
+    <col min="25" max="25" width="16.25" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9" style="34" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="34" customWidth="1"/>
+    <col min="28" max="28" width="14.125" style="34" customWidth="1"/>
+    <col min="29" max="29" width="9" style="34"/>
+    <col min="30" max="30" width="11.75" style="34" customWidth="1"/>
+    <col min="31" max="31" width="15.375" style="34" customWidth="1"/>
+    <col min="32" max="32" width="9" style="34"/>
+    <col min="33" max="33" width="12" style="34" customWidth="1"/>
+    <col min="34" max="34" width="22.25" style="34" customWidth="1"/>
+    <col min="35" max="35" width="26.5" style="34" customWidth="1"/>
+    <col min="36" max="36" width="25.125" style="34" customWidth="1"/>
+    <col min="37" max="37" width="16.75" style="35" customWidth="1"/>
+    <col min="38" max="38" width="18.75" style="35" customWidth="1"/>
+    <col min="39" max="39" width="19.5" style="35" customWidth="1"/>
+    <col min="40" max="40" width="29.375" style="35" customWidth="1"/>
+    <col min="41" max="41" width="27.25" style="35" customWidth="1"/>
+    <col min="42" max="42" width="16.75" style="35" customWidth="1"/>
+    <col min="43" max="43" width="16.5" style="36" customWidth="1"/>
+    <col min="44" max="44" width="19.625" style="36" customWidth="1"/>
+    <col min="45" max="45" width="23.875" style="36" customWidth="1"/>
+    <col min="46" max="46" width="26.25" style="36" customWidth="1"/>
+    <col min="47" max="47" width="27.625" style="36" customWidth="1"/>
+    <col min="48" max="48" width="17.875" style="37" customWidth="1"/>
+    <col min="49" max="49" width="18.875" style="37" customWidth="1"/>
+    <col min="50" max="50" width="16.375" style="37" customWidth="1"/>
+    <col min="51" max="51" width="22.625" style="37" customWidth="1"/>
+    <col min="52" max="52" width="26.875" style="37" customWidth="1"/>
+    <col min="53" max="53" width="26.75" style="37" customWidth="1"/>
+    <col min="54" max="54" width="19.875" style="39" customWidth="1"/>
+    <col min="55" max="55" width="14.25" style="39" customWidth="1"/>
+    <col min="56" max="56" width="28" style="39" customWidth="1"/>
+    <col min="57" max="57" width="26.625" style="39" customWidth="1"/>
+    <col min="58" max="58" width="23.125" style="39" customWidth="1"/>
+    <col min="59" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="51" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:58" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+    </row>
+    <row r="2" spans="1:58" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52"/>
+      <c r="B2" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="57"/>
+      <c r="V2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP2" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ2" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT2" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY2" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ2" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB2" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="47" t="s">
+      <c r="BE2" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF2" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" s="21" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AM3" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR3" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+    </row>
+    <row r="4" spans="1:58" s="42" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ4" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+    </row>
+    <row r="5" spans="1:58" s="42" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="48"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="50">
+        <v>0.78</v>
+      </c>
+      <c r="AJ5" s="49">
+        <v>0.67</v>
+      </c>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+    </row>
+    <row r="6" spans="1:58" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="31">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>32</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="T6" s="33">
+        <v>1</v>
+      </c>
+      <c r="U6" s="33">
+        <v>32</v>
+      </c>
+      <c r="AJ6" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="35">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="35">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO6" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="36">
+        <v>32</v>
+      </c>
+      <c r="AS6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX6" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB6" s="39">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="39">
+        <v>32</v>
+      </c>
+      <c r="BD6" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE6" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="31">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>32</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50" t="s">
+      <c r="J7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="35">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="35">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV7" s="37">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY7" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ7" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="32">
+        <v>16</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y8" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA8" s="34">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="34">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG8" s="34">
+        <v>16</v>
+      </c>
+      <c r="AH8" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI8" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32">
+        <v>32</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y9" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA9" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH9" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI9" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ9" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK9" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="35">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="35">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO9" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="31">
+        <v>6</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK10" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="35">
+        <v>8</v>
+      </c>
+      <c r="AM10" s="35">
+        <v>8</v>
+      </c>
+      <c r="AN10" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO10" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" ht="243.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="31">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11" s="27">
+        <v>1</v>
+      </c>
+      <c r="U11" s="27">
+        <v>32</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y11" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA11" s="34">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="34">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD11" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH11" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK11" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="35">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="35">
+        <v>8</v>
+      </c>
+      <c r="AN11" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO11" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="T12" s="27">
+        <v>1</v>
+      </c>
+      <c r="U12" s="27">
+        <v>32</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y12" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA12" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH12" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI12" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK12" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="35">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="35">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO12" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="31">
+        <v>1</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="T13" s="27">
+        <v>1</v>
+      </c>
+      <c r="U13" s="27">
+        <v>32</v>
+      </c>
+      <c r="V13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y13" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA13" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH13" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI13" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y14" s="34">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA14" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH14" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI14" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK14" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="35">
+        <v>8</v>
+      </c>
+      <c r="AM14" s="35">
+        <v>8</v>
+      </c>
+      <c r="AN14" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO14" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="31">
+        <v>2</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="T15" s="27">
+        <v>1</v>
+      </c>
+      <c r="U15" s="27">
+        <v>32</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y15" s="34">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA15" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH15" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK15" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="35">
+        <v>8</v>
+      </c>
+      <c r="AM15" s="35">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="36">
+        <v>32</v>
+      </c>
+      <c r="AS15" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="31">
+        <v>6</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+      <c r="S16" s="27">
+        <v>32</v>
+      </c>
+      <c r="V16" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="35">
+        <v>8</v>
+      </c>
+      <c r="AM16" s="35">
+        <v>8</v>
+      </c>
+      <c r="AN16" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO16" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="T17" s="27">
+        <v>2</v>
+      </c>
+      <c r="U17" s="27">
+        <v>32</v>
+      </c>
+      <c r="V17" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-    </row>
-    <row r="2" spans="1:57" s="51" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS2" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT2" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU2" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX2" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA2" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB2" s="50" t="s">
+      <c r="W17" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y17" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA17" s="34">
+        <v>32</v>
+      </c>
+      <c r="AE17" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG17" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH17" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI17" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="31">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="R18" s="27">
+        <v>2</v>
+      </c>
+      <c r="S18" s="27">
+        <v>32</v>
+      </c>
+      <c r="T18" s="27">
         <v>3</v>
       </c>
-      <c r="BC2" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="BD2" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE2" s="50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" s="51" customFormat="1" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE3" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL3" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="59" t="s">
+      <c r="U18" s="27">
+        <v>32</v>
+      </c>
+      <c r="V18" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y18" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA18" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH18" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI18" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="35">
+        <v>4</v>
+      </c>
+      <c r="AM18" s="35">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO18" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW18" s="40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="31">
+        <v>2</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="R19" s="27">
+        <v>1</v>
+      </c>
+      <c r="S19" s="27">
+        <v>32</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y19" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA19" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH19" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI19" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="31">
+        <v>2</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="R20" s="27">
+        <v>1</v>
+      </c>
+      <c r="S20" s="27">
+        <v>32</v>
+      </c>
+      <c r="V20" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="W20" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y20" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA20" s="34">
+        <v>32</v>
+      </c>
+      <c r="AH20" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI20" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="31">
+        <v>10</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN21" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO21" s="35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="N22" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="AQ3" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV3" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="AW3" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="50"/>
-    </row>
-    <row r="4" spans="1:57" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="61">
-        <v>1</v>
-      </c>
-      <c r="C4" s="61">
-        <v>2</v>
-      </c>
-      <c r="D4" s="62">
-        <v>32</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="S4" s="63">
-        <v>1</v>
-      </c>
-      <c r="T4" s="63">
-        <v>32</v>
-      </c>
-      <c r="AJ4" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="65">
-        <v>8</v>
-      </c>
-      <c r="AL4" s="65">
-        <v>8</v>
-      </c>
-      <c r="AM4" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN4" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP4" s="66">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="66">
-        <v>32</v>
-      </c>
-      <c r="AR4" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS4" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW4" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA4" s="69">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="69">
-        <v>32</v>
-      </c>
-      <c r="BC4" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD4" s="69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" ht="162.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="61">
-        <v>2</v>
-      </c>
-      <c r="C5" s="61">
-        <v>2</v>
-      </c>
-      <c r="D5" s="62">
-        <v>32</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ5" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="65">
-        <v>6</v>
-      </c>
-      <c r="AL5" s="65">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU5" s="67">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="67" t="s">
+    </row>
+    <row r="23" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="AX5" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY5" s="67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" ht="270.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="61">
-        <v>6</v>
-      </c>
-      <c r="C6" s="61">
-        <v>2</v>
-      </c>
-      <c r="D6" s="62">
-        <v>16</v>
-      </c>
-      <c r="N6" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="X6" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z6" s="64">
-        <v>16</v>
-      </c>
-      <c r="AD6" s="64">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF6" s="64">
-        <v>16</v>
-      </c>
-      <c r="AG6" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH6" s="64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="61">
-        <v>3</v>
-      </c>
-      <c r="C7" s="61">
-        <v>2</v>
-      </c>
-      <c r="D7" s="62">
-        <v>32</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="O7" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="X7" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z7" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG7" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH7" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ7" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="65">
-        <v>8</v>
-      </c>
-      <c r="AL7" s="65">
-        <v>32</v>
-      </c>
-      <c r="AM7" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN7" s="65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" ht="297.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="61">
-        <v>6</v>
-      </c>
-      <c r="C8" s="61">
-        <v>2</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="N8" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ8" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="65">
-        <v>8</v>
-      </c>
-      <c r="AL8" s="65">
-        <v>8</v>
-      </c>
-      <c r="AM8" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN8" s="65" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="61">
-        <v>3</v>
-      </c>
-      <c r="C9" s="61">
-        <v>2</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="S9" s="57">
-        <v>1</v>
-      </c>
-      <c r="T9" s="57">
-        <v>32</v>
-      </c>
-      <c r="U9" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="V9" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z9" s="64">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="64">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC9" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG9" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ9" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="65">
-        <v>8</v>
-      </c>
-      <c r="AL9" s="65">
-        <v>8</v>
-      </c>
-      <c r="AM9" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN9" s="65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="61">
-        <v>1</v>
-      </c>
-      <c r="C10" s="61">
-        <v>2</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="N10" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="O10" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" s="57">
-        <v>1</v>
-      </c>
-      <c r="T10" s="57">
-        <v>32</v>
-      </c>
-      <c r="U10" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="V10" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="X10" s="64">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z10" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG10" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH10" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ10" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="65">
-        <v>4</v>
-      </c>
-      <c r="AL10" s="65">
-        <v>4</v>
-      </c>
-      <c r="AM10" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN10" s="65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="61">
-        <v>1</v>
-      </c>
-      <c r="C11" s="61">
-        <v>2</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="O11" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="S11" s="57">
-        <v>1</v>
-      </c>
-      <c r="T11" s="57">
-        <v>32</v>
-      </c>
-      <c r="U11" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="V11" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="X11" s="64">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z11" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG11" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH11" s="64" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="61">
-        <v>12</v>
-      </c>
-      <c r="C12" s="61">
-        <v>2</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="N12" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="O12" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="P12" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="X12" s="64">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z12" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG12" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH12" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ12" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="65">
-        <v>8</v>
-      </c>
-      <c r="AL12" s="65">
-        <v>8</v>
-      </c>
-      <c r="AM12" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="AN12" s="65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="61">
-        <v>2</v>
-      </c>
-      <c r="C13" s="61">
-        <v>2</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="57">
-        <v>1</v>
-      </c>
-      <c r="T13" s="57">
-        <v>32</v>
-      </c>
-      <c r="U13" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="X13" s="64">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z13" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG13" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ13" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="65">
-        <v>8</v>
-      </c>
-      <c r="AL13" s="65">
-        <v>8</v>
-      </c>
-      <c r="AM13" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="AP13" s="66">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="66">
-        <v>32</v>
-      </c>
-      <c r="AR13" s="66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" ht="297.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="61">
-        <v>6</v>
-      </c>
-      <c r="C14" s="61">
-        <v>2</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="N14" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="O14" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="P14" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q14" s="57">
-        <v>1</v>
-      </c>
-      <c r="R14" s="57">
-        <v>32</v>
-      </c>
-      <c r="U14" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="V14" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ14" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="65">
-        <v>8</v>
-      </c>
-      <c r="AL14" s="65">
-        <v>8</v>
-      </c>
-      <c r="AM14" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN14" s="65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="61">
-        <v>1</v>
-      </c>
-      <c r="C15" s="61">
-        <v>2</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="N15" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="O15" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="S15" s="57">
-        <v>2</v>
-      </c>
-      <c r="T15" s="57">
-        <v>32</v>
-      </c>
-      <c r="U15" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="V15" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="X15" s="64">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z15" s="64">
-        <v>32</v>
-      </c>
-      <c r="AD15" s="64">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF15" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG15" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH15" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA15" s="69">
-        <v>1</v>
-      </c>
-      <c r="BB15" s="69">
-        <v>32</v>
-      </c>
-      <c r="BC15" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD15" s="69" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="61">
-        <v>1</v>
-      </c>
-      <c r="C16" s="61">
-        <v>2</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="N16" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="O16" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q16" s="57">
-        <v>2</v>
-      </c>
-      <c r="R16" s="57">
-        <v>32</v>
-      </c>
-      <c r="S16" s="57">
-        <v>3</v>
-      </c>
-      <c r="T16" s="57">
-        <v>32</v>
-      </c>
-      <c r="U16" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="V16" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="X16" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z16" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG16" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH16" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ16" s="65">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="65">
-        <v>4</v>
-      </c>
-      <c r="AL16" s="65">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN16" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV16" s="70" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="162.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="61">
-        <v>2</v>
-      </c>
-      <c r="C17" s="61">
-        <v>2</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q17" s="57">
-        <v>1</v>
-      </c>
-      <c r="R17" s="57">
-        <v>32</v>
-      </c>
-      <c r="U17" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="V17" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="X17" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z17" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG17" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH17" s="64" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="162.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="61">
-        <v>2</v>
-      </c>
-      <c r="C18" s="61">
-        <v>2</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="N18" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="O18" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q18" s="57">
-        <v>1</v>
-      </c>
-      <c r="R18" s="57">
-        <v>32</v>
-      </c>
-      <c r="U18" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="V18" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="X18" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z18" s="64">
-        <v>32</v>
-      </c>
-      <c r="AG18" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH18" s="64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="270.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="61">
-        <v>10</v>
-      </c>
-      <c r="C19" s="61">
-        <v>2</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="N19" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM19" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN19" s="65" t="s">
-        <v>244</v>
+      <c r="N24" s="31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="BD2:BD3"/>
     <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="X1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4018,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -4036,57 +4302,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="C3" s="6">
         <v>32</v>
@@ -4095,66 +4361,66 @@
         <v>16</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="70"/>
+      <c r="B4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="70"/>
+      <c r="B5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>253</v>
+      <c r="A7" s="69" t="s">
+        <v>250</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="6">
         <v>32</v>
@@ -4162,24 +4428,24 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
-        <v>277</v>
+      <c r="F7" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72" t="s">
+        <v>272</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C8" s="6">
         <v>32</v>
@@ -4187,22 +4453,22 @@
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>81</v>
+      <c r="A9" s="69" t="s">
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="4">
         <v>0.68888888888888899</v>
@@ -4211,28 +4477,28 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C10" s="6">
         <v>32</v>
@@ -4241,141 +4507,141 @@
         <v>1</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>276</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C11" s="4">
         <v>0.68888888888888899</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="J11" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B12" s="36"/>
+      <c r="A12" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="61"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="36"/>
+      <c r="A13" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="61"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="36"/>
+      <c r="A14" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="61"/>
       <c r="F14" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="36"/>
+      <c r="A15" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="61"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
       <c r="D15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>303</v>
+      <c r="A16" s="62" t="s">
+        <v>298</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C16" s="16">
         <v>8</v>
@@ -4383,21 +4649,21 @@
       <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C17" s="16">
         <v>32</v>
@@ -4405,29 +4671,19 @@
       <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -4436,6 +4692,16 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4473,44 +4739,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="80" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4523,14 +4789,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
@@ -4578,7 +4844,7 @@
     </row>
     <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1">
         <v>45</v>
@@ -4591,22 +4857,22 @@
     </row>
     <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4788,7 +5054,7 @@
         <v>52</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>37</v>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计_新" sheetId="3" r:id="rId1"/>
     <sheet name="算子统计_新" sheetId="4" r:id="rId2"/>
-    <sheet name="算子统计" sheetId="2" r:id="rId3"/>
-    <sheet name="算法统计" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="算子统计" sheetId="2" r:id="rId4"/>
+    <sheet name="算法统计" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="348">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1486,6 +1487,86 @@
     <t>xor-xor-sbox
 xor-sbox-xor
 sbox-xor-xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现的算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算子在算法中出现的频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算子组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级后缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级后缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级后缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级前缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级前缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级前缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1633,7 +1714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1793,11 +1874,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1952,64 +2053,28 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2036,8 +2101,125 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2810,11 +2992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:H2"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -2879,56 +3061,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59" t="s">
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="57" t="s">
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="56" t="s">
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
       <c r="AK1" s="54" t="s">
         <v>87</v>
       </c>
@@ -2948,16 +3130,16 @@
       </c>
       <c r="AT1" s="55"/>
       <c r="AU1" s="55"/>
-      <c r="AV1" s="53" t="s">
+      <c r="AV1" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53" t="s">
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
       <c r="BB1" s="51" t="s">
         <v>133</v>
       </c>
@@ -2969,47 +3151,47 @@
       <c r="BF1" s="51"/>
     </row>
     <row r="2" spans="1:58" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="57"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="22" t="s">
         <v>86</v>
       </c>
@@ -3019,21 +3201,21 @@
       <c r="X2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56" t="s">
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
       <c r="AH2" s="23" t="s">
         <v>73</v>
       </c>
@@ -3070,20 +3252,20 @@
       <c r="AU2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="53" t="s">
+      <c r="AV2" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="53"/>
+      <c r="AW2" s="52"/>
       <c r="AX2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AY2" s="53" t="s">
+      <c r="AY2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="AZ2" s="53" t="s">
+      <c r="AZ2" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="53" t="s">
+      <c r="BA2" s="52" t="s">
         <v>75</v>
       </c>
       <c r="BB2" s="51" t="s">
@@ -3103,7 +3285,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="21" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
@@ -3143,9 +3325,9 @@
       <c r="N3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
       <c r="R3" s="22" t="s">
         <v>78</v>
       </c>
@@ -3221,9 +3403,9 @@
       <c r="AX3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
       <c r="BB3" s="51"/>
       <c r="BC3" s="51"/>
       <c r="BD3" s="51"/>
@@ -4227,12 +4409,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -4249,29 +4448,12 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4284,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -4302,53 +4484,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="77" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="77"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="73" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4371,7 +4553,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="7" t="s">
         <v>246</v>
       </c>
@@ -4386,7 +4568,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="7" t="s">
         <v>247</v>
       </c>
@@ -4401,7 +4583,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
@@ -4416,7 +4598,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="73" t="s">
         <v>250</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4428,11 +4610,11 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60" t="s">
         <v>272</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -4443,7 +4625,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="7" t="s">
         <v>249</v>
       </c>
@@ -4453,9 +4635,9 @@
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="11" t="s">
         <v>284</v>
       </c>
@@ -4464,7 +4646,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="73" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -4496,7 +4678,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="7" t="s">
         <v>252</v>
       </c>
@@ -4523,7 +4705,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
@@ -4553,10 +4735,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="77"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
@@ -4577,10 +4759,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
@@ -4598,10 +4780,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="77"/>
       <c r="F14" s="10" t="s">
         <v>279</v>
       </c>
@@ -4619,10 +4801,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
@@ -4637,7 +4819,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="78" t="s">
         <v>298</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -4661,7 +4843,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="15" t="s">
         <v>302</v>
       </c>
@@ -4684,6 +4866,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -4692,16 +4884,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4719,6 +4901,1285 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="86"/>
+    <col min="2" max="2" width="22.625" style="86" customWidth="1"/>
+    <col min="3" max="3" width="7" style="86" customWidth="1"/>
+    <col min="4" max="4" width="9" style="86"/>
+    <col min="5" max="5" width="22.625" style="86" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="86"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="85"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="101"/>
+      <c r="B2" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="88" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>335</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="P3" s="88" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="R3" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="S3" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="T3" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="U3" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="102">
+        <v>4</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="97"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="97"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="97"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="97"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="97"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="94"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+    </row>
+    <row r="17" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="94"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+    </row>
+    <row r="19" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="97"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="97"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="97"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="94"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="98"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="97"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+    </row>
+    <row r="26" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="97"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="97"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="94"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="98"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="97"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="97"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="94"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="89"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="91"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+    </row>
+    <row r="36" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="91"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+    </row>
+    <row r="37" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="91"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+    </row>
+    <row r="38" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="91"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+    </row>
+    <row r="39" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="91"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="92"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="92"/>
+      <c r="Y39" s="92"/>
+      <c r="Z39" s="92"/>
+      <c r="AA39" s="92"/>
+    </row>
+    <row r="40" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="91"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="92"/>
+    </row>
+    <row r="41" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE40">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -4862,17 +6323,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4881,7 +6342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="514">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1494,10 +1494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出现的算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1567,6 +1563,588 @@
   </si>
   <si>
     <t>BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES CAMELLIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMELLIA</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR XOR XOR LUT</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES TWOFISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA RC6 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA CAST128 GOST SEED TWOFISH SM4 SERPENT SKIPJECT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMELLIA CAST128 SEED SKIPJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMELLIA SEED SKIPJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SKIPJECT </t>
+  </si>
+  <si>
+    <t>LUT SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 SERPENT </t>
+  </si>
+  <si>
+    <t>LUT SH XOR</t>
+  </si>
+  <si>
+    <t>GOST SM4</t>
+  </si>
+  <si>
+    <t>LUT SH XOR XOR</t>
+  </si>
+  <si>
+    <t>SM4</t>
+  </si>
+  <si>
+    <t>LUT MAS</t>
+  </si>
+  <si>
+    <t>BLOWFISH</t>
+  </si>
+  <si>
+    <t>LUT MAS XOR</t>
+  </si>
+  <si>
+    <t>LUT BR</t>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA BLOWFISH CAST128 GOST RC5 SEED TWOFISH RC6 SERPENT TEA XTEA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR</t>
+  </si>
+  <si>
+    <t>IDEA BLOWFISH CAST128 RC5 SEED TWOFISH TEA XTEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH SEED TWOFISH </t>
+  </si>
+  <si>
+    <t>MAS XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 TEA XTEA </t>
+  </si>
+  <si>
+    <t>MAS XOR MAS</t>
+  </si>
+  <si>
+    <t>BLOWFISH CAST128 XTEA</t>
+  </si>
+  <si>
+    <t>MAS MAS</t>
+  </si>
+  <si>
+    <t>CAST128 TWOFISH TEA</t>
+  </si>
+  <si>
+    <t>MAS MAS XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TWOFISH TEA </t>
+  </si>
+  <si>
+    <t>MAS XOR MAS XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH XTEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 SERPENT </t>
+  </si>
+  <si>
+    <t>MA SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR</t>
+  </si>
+  <si>
+    <t>GFM XOR</t>
+  </si>
+  <si>
+    <t>SUB XOR</t>
+  </si>
+  <si>
+    <t>BR XOR</t>
+  </si>
+  <si>
+    <t>BR GFM XOR</t>
+  </si>
+  <si>
+    <t>BR GFM</t>
+  </si>
+  <si>
+    <t>BR XOR XOR</t>
+  </si>
+  <si>
+    <t>MM XOR</t>
+  </si>
+  <si>
+    <t>MAS LUT</t>
+  </si>
+  <si>
+    <t>GOST SEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 GOST RC5 TWOFISH SM4 RC6 SERPENT TEA XTEA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 RC6 SERPENT TEA </t>
+  </si>
+  <si>
+    <t>SH MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 RC6 SERPENT XTEA </t>
+  </si>
+  <si>
+    <t>SH XOR MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST TEA </t>
+  </si>
+  <si>
+    <t>SH MAS XOR</t>
+  </si>
+  <si>
+    <t>RC5 XTEA</t>
+  </si>
+  <si>
+    <t>SH LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TWOFISH </t>
+  </si>
+  <si>
+    <t>SH XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4 </t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>XOR SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5 TWOFISH RC6 TEA XTEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5 TEA XTEA</t>
+  </si>
+  <si>
+    <t>GOST SM4 SERPENT</t>
+  </si>
+  <si>
+    <t>XOR LUT SH</t>
+  </si>
+  <si>
+    <t>SM4 SERPENT</t>
+  </si>
+  <si>
+    <t>MAS SH</t>
+  </si>
+  <si>
+    <t>XOR XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH </t>
+  </si>
+  <si>
+    <t>XOR MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAST128 GOST SEED TEA XTEA </t>
+  </si>
+  <si>
+    <t>RC5 RC6 SERPENT XTEA</t>
+  </si>
+  <si>
+    <t>XOR SH MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 RC6 XTEA </t>
+  </si>
+  <si>
+    <t>XOR MAS MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TEA </t>
+  </si>
+  <si>
+    <t>XOR MM</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA SEED SM4 SERPENT SKIPJECT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR LUT</t>
+  </si>
+  <si>
+    <t>XOR XOR LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED SM4 SKIPJECT </t>
+  </si>
+  <si>
+    <t>5/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR XOR LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEED SM4 SKIPJECT </t>
+  </si>
+  <si>
+    <t>XOR MAS LUT</t>
+  </si>
+  <si>
+    <t>CAST128 TWOFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XOR XOR SH LUT</t>
+  </si>
+  <si>
+    <t>TWOFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES </t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR SUB</t>
+  </si>
+  <si>
+    <t>DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR XOR BR</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR BR</t>
+  </si>
+  <si>
+    <t>XOR LUT BR</t>
+  </si>
+  <si>
+    <t>XOR BR</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES IDEA BLOWFISH CAMELLIA CAST128 GOST RC5 SEED TWOFISH SM4 RC6 SERPENT TEA XTEA SKIPJECT </t>
+  </si>
+  <si>
+    <t>16/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED TWOFISH SM4 SKIPJECT </t>
+  </si>
+  <si>
+    <t>XOR XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR XOR</t>
+  </si>
+  <si>
+    <t>XOR XOR XOR XOR</t>
+  </si>
+  <si>
+    <t>4/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SM4 SKIPJECT </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1640,7 +2218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,8 +2291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1894,11 +2478,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2050,31 +2643,85 @@
     <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,124 +2748,88 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3061,137 +3672,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="58" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="56" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="57" t="s">
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54" t="s">
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="55" t="s">
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55" t="s">
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="52" t="s">
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="51" t="s">
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51" t="s">
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56" t="s">
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="56"/>
+      <c r="U2" s="63"/>
       <c r="V2" s="22" t="s">
         <v>86</v>
       </c>
@@ -3201,21 +3812,21 @@
       <c r="X2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
       <c r="AH2" s="23" t="s">
         <v>73</v>
       </c>
@@ -3225,67 +3836,67 @@
       <c r="AJ2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" s="54" t="s">
+      <c r="AK2" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54" t="s">
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="AO2" s="54" t="s">
+      <c r="AO2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="AP2" s="54" t="s">
+      <c r="AP2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="AQ2" s="55" t="s">
+      <c r="AQ2" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55" t="s">
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="55" t="s">
+      <c r="AT2" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="55" t="s">
+      <c r="AU2" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="52" t="s">
+      <c r="AV2" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="52"/>
+      <c r="AW2" s="59"/>
       <c r="AX2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AY2" s="52" t="s">
+      <c r="AY2" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="AZ2" s="52" t="s">
+      <c r="AZ2" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="52" t="s">
+      <c r="BA2" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="BB2" s="51" t="s">
+      <c r="BB2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="51" t="s">
+      <c r="BC2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="BD2" s="51" t="s">
+      <c r="BD2" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="BE2" s="51" t="s">
+      <c r="BE2" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="BF2" s="51" t="s">
+      <c r="BF2" s="57" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="21" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
@@ -3325,9 +3936,9 @@
       <c r="N3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
       <c r="R3" s="22" t="s">
         <v>78</v>
       </c>
@@ -3382,18 +3993,18 @@
       <c r="AM3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
       <c r="AQ3" s="29" t="s">
         <v>301</v>
       </c>
       <c r="AR3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
       <c r="AV3" s="24" t="s">
         <v>84</v>
       </c>
@@ -3403,14 +4014,14 @@
       <c r="AX3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="51"/>
-      <c r="BF3" s="51"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
     </row>
     <row r="4" spans="1:58" s="42" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="48"/>
@@ -4409,6 +5020,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="BD2:BD3"/>
     <mergeCell ref="BE2:BE3"/>
     <mergeCell ref="BF2:BF3"/>
@@ -4425,35 +5065,6 @@
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4484,53 +5095,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="82" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4553,7 +5164,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="7" t="s">
         <v>246</v>
       </c>
@@ -4568,7 +5179,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="7" t="s">
         <v>247</v>
       </c>
@@ -4583,7 +5194,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
@@ -4598,7 +5209,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="75" t="s">
         <v>250</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4610,11 +5221,11 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60" t="s">
+      <c r="G7" s="78"/>
+      <c r="H7" s="78" t="s">
         <v>272</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -4625,7 +5236,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="7" t="s">
         <v>249</v>
       </c>
@@ -4635,9 +5246,9 @@
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="11" t="s">
         <v>284</v>
       </c>
@@ -4646,7 +5257,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="75" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -4678,7 +5289,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="7" t="s">
         <v>252</v>
       </c>
@@ -4705,7 +5316,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
@@ -4735,10 +5346,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="67"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
@@ -4759,10 +5370,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="77"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
@@ -4780,10 +5391,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="67"/>
       <c r="F14" s="10" t="s">
         <v>279</v>
       </c>
@@ -4801,10 +5412,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
@@ -4819,7 +5430,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="68" t="s">
         <v>298</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -4843,7 +5454,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="15" t="s">
         <v>302</v>
       </c>
@@ -4866,16 +5477,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -4884,6 +5485,16 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4902,1280 +5513,1866 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="86"/>
-    <col min="2" max="2" width="22.625" style="86" customWidth="1"/>
-    <col min="3" max="3" width="7" style="86" customWidth="1"/>
-    <col min="4" max="4" width="9" style="86"/>
-    <col min="5" max="5" width="22.625" style="86" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="86"/>
+    <col min="1" max="1" width="9" style="51"/>
+    <col min="2" max="2" width="22.625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="7" style="51" customWidth="1"/>
+    <col min="4" max="4" width="9" style="51"/>
+    <col min="5" max="5" width="36.125" style="51" customWidth="1"/>
+    <col min="6" max="6" width="9" style="51"/>
+    <col min="7" max="7" width="11.875" style="51" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="9" style="51"/>
+    <col min="10" max="10" width="18.125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="15" style="51" customWidth="1"/>
+    <col min="12" max="13" width="9" style="51"/>
+    <col min="14" max="14" width="19.5" style="51" customWidth="1"/>
+    <col min="15" max="15" width="9" style="51"/>
+    <col min="16" max="16" width="14.25" style="51" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="51" customWidth="1"/>
+    <col min="18" max="18" width="9" style="51"/>
+    <col min="19" max="19" width="16.5" style="51" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="51" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="85"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="94"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="101"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="G3" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="83" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="83" t="s">
+      <c r="H3" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="108" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="L3" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>329</v>
+      </c>
+      <c r="P3" s="110" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q3" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="R3" s="110" t="s">
+        <v>329</v>
+      </c>
+      <c r="S3" s="110" t="s">
+        <v>338</v>
+      </c>
+      <c r="T3" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="U3" s="110" t="s">
+        <v>329</v>
+      </c>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+    </row>
+    <row r="4" spans="1:27" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" s="109" t="s">
+        <v>460</v>
+      </c>
+      <c r="G4" s="109" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>418</v>
+      </c>
+      <c r="I4" s="109" t="s">
+        <v>446</v>
+      </c>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="111" t="s">
+        <v>426</v>
+      </c>
+      <c r="N4" s="111" t="s">
+        <v>427</v>
+      </c>
+      <c r="O4" s="111" t="s">
+        <v>448</v>
+      </c>
+      <c r="P4" s="111" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q4" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="R4" s="111" t="s">
+        <v>445</v>
+      </c>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="109" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>461</v>
+      </c>
+      <c r="G5" s="109" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>420</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="111" t="s">
+        <v>372</v>
+      </c>
+      <c r="N5" s="111" t="s">
+        <v>429</v>
+      </c>
+      <c r="O5" s="111" t="s">
+        <v>449</v>
+      </c>
+      <c r="P5" s="111" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q5" s="111" t="s">
+        <v>431</v>
+      </c>
+      <c r="R5" s="111" t="s">
+        <v>446</v>
+      </c>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="109" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="109" t="s">
+        <v>462</v>
+      </c>
+      <c r="G6" s="109" t="s">
+        <v>423</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>464</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="111" t="s">
+        <v>432</v>
+      </c>
+      <c r="N6" s="111" t="s">
+        <v>399</v>
+      </c>
+      <c r="O6" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="P6" s="111" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q6" s="111" t="s">
+        <v>434</v>
+      </c>
+      <c r="R6" s="111" t="s">
+        <v>447</v>
+      </c>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="88"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="85"/>
-    </row>
-    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="88" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="I3" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="J3" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="K3" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="L3" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="M3" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="N3" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="P3" s="88" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q3" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="R3" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="S3" s="88" t="s">
-        <v>339</v>
-      </c>
-      <c r="T3" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="U3" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="102">
-        <v>4</v>
-      </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+      <c r="B9" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="109" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="111" t="s">
+        <v>442</v>
+      </c>
+      <c r="N9" s="111" t="s">
+        <v>443</v>
+      </c>
+      <c r="O9" s="111" t="s">
+        <v>444</v>
+      </c>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="87"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="87"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="87"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="88"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+    </row>
+    <row r="14" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="97"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="B14" s="89" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>387</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="109" t="s">
+        <v>465</v>
+      </c>
+      <c r="J14" s="109" t="s">
+        <v>397</v>
+      </c>
+      <c r="K14" s="109" t="s">
+        <v>398</v>
+      </c>
+      <c r="L14" s="109" t="s">
+        <v>456</v>
+      </c>
+      <c r="M14" s="111" t="s">
+        <v>435</v>
+      </c>
+      <c r="N14" s="111" t="s">
+        <v>436</v>
+      </c>
+      <c r="O14" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="P14" s="111" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q14" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="R14" s="111" t="s">
+        <v>454</v>
+      </c>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="87"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>467</v>
+      </c>
+      <c r="G15" s="109" t="s">
+        <v>389</v>
+      </c>
+      <c r="H15" s="109" t="s">
+        <v>390</v>
+      </c>
+      <c r="I15" s="109" t="s">
+        <v>466</v>
+      </c>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="111" t="s">
+        <v>415</v>
+      </c>
+      <c r="N15" s="111" t="s">
+        <v>437</v>
+      </c>
+      <c r="O15" s="111" t="s">
+        <v>452</v>
+      </c>
+      <c r="P15" s="111" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q15" s="111" t="s">
+        <v>392</v>
+      </c>
+      <c r="R15" s="111" t="s">
+        <v>455</v>
+      </c>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+    </row>
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="87"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="109" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" s="109" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16" s="109" t="s">
+        <v>392</v>
+      </c>
+      <c r="I16" s="109" t="s">
+        <v>467</v>
+      </c>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="111" t="s">
+        <v>393</v>
+      </c>
+      <c r="N16" s="111" t="s">
+        <v>396</v>
+      </c>
+      <c r="O16" s="111" t="s">
+        <v>453</v>
+      </c>
+      <c r="P16" s="111" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q16" s="111" t="s">
+        <v>441</v>
+      </c>
+      <c r="R16" s="111" t="s">
+        <v>456</v>
+      </c>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="109" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="109" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" s="109" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="109" t="s">
+        <v>396</v>
+      </c>
+      <c r="I17" s="109" t="s">
+        <v>466</v>
+      </c>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q17" s="111" t="s">
+        <v>418</v>
+      </c>
+      <c r="R17" s="111" t="s">
+        <v>457</v>
+      </c>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="88"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+    </row>
+    <row r="19" spans="1:27" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="109" t="s">
+        <v>471</v>
+      </c>
+      <c r="G19" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="H19" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="I19" s="109" t="s">
+        <v>466</v>
+      </c>
+      <c r="J19" s="109" t="s">
+        <v>370</v>
+      </c>
+      <c r="K19" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="L19" s="109" t="s">
+        <v>465</v>
+      </c>
+      <c r="M19" s="111" t="s">
+        <v>477</v>
+      </c>
+      <c r="N19" s="111" t="s">
+        <v>458</v>
+      </c>
+      <c r="O19" s="111" t="s">
+        <v>459</v>
+      </c>
+      <c r="P19" s="111" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q19" s="111" t="s">
+        <v>479</v>
+      </c>
+      <c r="R19" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="S19" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="T19" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="U19" s="111" t="s">
+        <v>454</v>
+      </c>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="106"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="109" t="s">
+        <v>372</v>
+      </c>
+      <c r="E20" s="109" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" s="109" t="s">
+        <v>472</v>
+      </c>
+      <c r="G20" s="109" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>375</v>
+      </c>
+      <c r="I20" s="109" t="s">
+        <v>475</v>
+      </c>
+      <c r="J20" s="109" t="s">
+        <v>376</v>
+      </c>
+      <c r="K20" s="109" t="s">
+        <v>377</v>
+      </c>
+      <c r="L20" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="M20" s="111" t="s">
+        <v>421</v>
+      </c>
+      <c r="N20" s="111" t="s">
+        <v>484</v>
+      </c>
+      <c r="O20" s="111" t="s">
+        <v>456</v>
+      </c>
+      <c r="P20" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q20" s="111" t="s">
+        <v>410</v>
+      </c>
+      <c r="R20" s="111" t="s">
+        <v>456</v>
+      </c>
+      <c r="S20" s="111" t="s">
+        <v>485</v>
+      </c>
+      <c r="T20" s="111" t="s">
+        <v>486</v>
+      </c>
+      <c r="U20" s="111" t="s">
+        <v>474</v>
+      </c>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="106"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="109" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" s="109" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" s="109" t="s">
+        <v>379</v>
+      </c>
+      <c r="I21" s="109" t="s">
+        <v>476</v>
+      </c>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="N21" s="111" t="s">
+        <v>410</v>
+      </c>
+      <c r="O21" s="111" t="s">
+        <v>456</v>
+      </c>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="106"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="109" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>382</v>
+      </c>
+      <c r="F22" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="107"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-    </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="93" t="s">
+      <c r="B24" s="89" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="109" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="109" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="111" t="s">
+        <v>406</v>
+      </c>
+      <c r="N24" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="O24" s="111" t="s">
+        <v>488</v>
+      </c>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="87"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+    </row>
+    <row r="26" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="87"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="87"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="88"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="97"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="97"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93" t="s">
+      <c r="B29" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>360</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>492</v>
+      </c>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="111" t="s">
+        <v>489</v>
+      </c>
+      <c r="N29" s="111" t="s">
+        <v>490</v>
+      </c>
+      <c r="O29" s="111" t="s">
+        <v>491</v>
+      </c>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="87"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="87"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="87"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="88"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="97"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-    </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="97"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="97"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="94"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
+      <c r="B34" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="97"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="97"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="90"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-    </row>
-    <row r="35" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="91"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-    </row>
-    <row r="36" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="91"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-    </row>
-    <row r="37" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="91"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-    </row>
-    <row r="38" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="91"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-    </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="91"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="92"/>
-    </row>
-    <row r="40" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-    </row>
-    <row r="41" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="C34" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" s="109" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" s="109" t="s">
+        <v>405</v>
+      </c>
+      <c r="H34" s="109" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="J34" s="109" t="s">
+        <v>357</v>
+      </c>
+      <c r="K34" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="L34" s="109" t="s">
+        <v>358</v>
+      </c>
+      <c r="M34" s="111" t="s">
+        <v>497</v>
+      </c>
+      <c r="N34" s="111" t="s">
+        <v>353</v>
+      </c>
+      <c r="O34" s="111" t="s">
+        <v>498</v>
+      </c>
+      <c r="P34" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q34" s="111" t="s">
+        <v>353</v>
+      </c>
+      <c r="R34" s="111" t="s">
+        <v>494</v>
+      </c>
+      <c r="S34" s="111" t="s">
+        <v>493</v>
+      </c>
+      <c r="T34" s="111" t="s">
+        <v>353</v>
+      </c>
+      <c r="U34" s="111" t="s">
+        <v>352</v>
+      </c>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="87"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>355</v>
+      </c>
+      <c r="F35" s="109" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>407</v>
+      </c>
+      <c r="H35" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="I35" s="109" t="s">
+        <v>352</v>
+      </c>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="111" t="s">
+        <v>381</v>
+      </c>
+      <c r="N35" s="111" t="s">
+        <v>354</v>
+      </c>
+      <c r="O35" s="111" t="s">
+        <v>498</v>
+      </c>
+      <c r="P35" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q35" s="111" t="s">
+        <v>356</v>
+      </c>
+      <c r="R35" s="111" t="s">
+        <v>350</v>
+      </c>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="87"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="87"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="88"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+    </row>
+    <row r="39" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E39" s="109"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
+      <c r="T39" s="112"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+    </row>
+    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="53" t="s">
+        <v>499</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+    </row>
+    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+    </row>
+    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="112"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+    </row>
+    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="53"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="112"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
+  <mergeCells count="29">
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6200,44 +7397,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -6250,14 +7447,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
@@ -6323,17 +7520,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -1635,516 +1635,516 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA CAST128 GOST SEED TWOFISH SM4 SERPENT SKIPJECT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMELLIA CAST128 SEED SKIPJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMELLIA SEED SKIPJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SKIPJECT </t>
+  </si>
+  <si>
+    <t>LUT SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 SERPENT </t>
+  </si>
+  <si>
+    <t>LUT SH XOR</t>
+  </si>
+  <si>
+    <t>GOST SM4</t>
+  </si>
+  <si>
+    <t>LUT SH XOR XOR</t>
+  </si>
+  <si>
+    <t>SM4</t>
+  </si>
+  <si>
+    <t>LUT MAS</t>
+  </si>
+  <si>
+    <t>BLOWFISH</t>
+  </si>
+  <si>
+    <t>LUT MAS XOR</t>
+  </si>
+  <si>
+    <t>LUT BR</t>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA BLOWFISH CAST128 GOST RC5 SEED TWOFISH RC6 SERPENT TEA XTEA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR</t>
+  </si>
+  <si>
+    <t>IDEA BLOWFISH CAST128 RC5 SEED TWOFISH TEA XTEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH SEED TWOFISH </t>
+  </si>
+  <si>
+    <t>MAS XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 TEA XTEA </t>
+  </si>
+  <si>
+    <t>MAS XOR MAS</t>
+  </si>
+  <si>
+    <t>BLOWFISH CAST128 XTEA</t>
+  </si>
+  <si>
+    <t>MAS MAS</t>
+  </si>
+  <si>
+    <t>CAST128 TWOFISH TEA</t>
+  </si>
+  <si>
+    <t>MAS MAS XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TWOFISH TEA </t>
+  </si>
+  <si>
+    <t>MAS XOR MAS XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH XTEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 SERPENT </t>
+  </si>
+  <si>
+    <t>LUT XOR</t>
+  </si>
+  <si>
+    <t>GFM XOR</t>
+  </si>
+  <si>
+    <t>SUB XOR</t>
+  </si>
+  <si>
+    <t>BR XOR</t>
+  </si>
+  <si>
+    <t>BR GFM XOR</t>
+  </si>
+  <si>
+    <t>BR GFM</t>
+  </si>
+  <si>
+    <t>BR XOR XOR</t>
+  </si>
+  <si>
+    <t>MM XOR</t>
+  </si>
+  <si>
+    <t>MAS LUT</t>
+  </si>
+  <si>
+    <t>GOST SEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 GOST RC5 TWOFISH SM4 RC6 SERPENT TEA XTEA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 RC6 SERPENT TEA </t>
+  </si>
+  <si>
+    <t>SH MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 RC6 SERPENT XTEA </t>
+  </si>
+  <si>
+    <t>SH XOR MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST TEA </t>
+  </si>
+  <si>
+    <t>SH MAS XOR</t>
+  </si>
+  <si>
+    <t>RC5 XTEA</t>
+  </si>
+  <si>
+    <t>SH LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TWOFISH </t>
+  </si>
+  <si>
+    <t>SH XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4 </t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>XOR SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5 TWOFISH RC6 TEA XTEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5 TEA XTEA</t>
+  </si>
+  <si>
+    <t>GOST SM4 SERPENT</t>
+  </si>
+  <si>
+    <t>XOR LUT SH</t>
+  </si>
+  <si>
+    <t>SM4 SERPENT</t>
+  </si>
+  <si>
+    <t>MAS SH</t>
+  </si>
+  <si>
+    <t>XOR XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH </t>
+  </si>
+  <si>
+    <t>XOR MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAST128 GOST SEED TEA XTEA </t>
+  </si>
+  <si>
+    <t>RC5 RC6 SERPENT XTEA</t>
+  </si>
+  <si>
+    <t>XOR SH MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 RC6 XTEA </t>
+  </si>
+  <si>
+    <t>XOR MAS MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TEA </t>
+  </si>
+  <si>
+    <t>XOR MM</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA SEED SM4 SERPENT SKIPJECT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR LUT</t>
+  </si>
+  <si>
+    <t>XOR XOR LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED SM4 SKIPJECT </t>
+  </si>
+  <si>
+    <t>5/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR XOR LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEED SM4 SKIPJECT </t>
+  </si>
+  <si>
+    <t>XOR MAS LUT</t>
+  </si>
+  <si>
+    <t>CAST128 TWOFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XOR XOR SH LUT</t>
+  </si>
+  <si>
+    <t>TWOFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES </t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR SUB</t>
+  </si>
+  <si>
+    <t>DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR XOR BR</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR BR</t>
+  </si>
+  <si>
+    <t>XOR LUT BR</t>
+  </si>
+  <si>
+    <t>XOR BR</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES IDEA BLOWFISH CAMELLIA CAST128 GOST RC5 SEED TWOFISH SM4 RC6 SERPENT TEA XTEA SKIPJECT </t>
+  </si>
+  <si>
+    <t>16/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED TWOFISH SM4 SKIPJECT </t>
+  </si>
+  <si>
+    <t>XOR XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR XOR</t>
+  </si>
+  <si>
+    <t>XOR XOR XOR XOR</t>
+  </si>
+  <si>
+    <t>4/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SM4 SKIPJECT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA CAST128 GOST SEED TWOFISH SM4 SERPENT SKIPJECT </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMELLIA CAST128 SEED SKIPJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT XOR XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMELLIA SEED SKIPJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT XOR XOR XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA SEED SKIPJECT </t>
-  </si>
-  <si>
-    <t>LUT SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST SM4 SERPENT </t>
-  </si>
-  <si>
-    <t>LUT SH XOR</t>
-  </si>
-  <si>
-    <t>GOST SM4</t>
-  </si>
-  <si>
-    <t>LUT SH XOR XOR</t>
-  </si>
-  <si>
-    <t>SM4</t>
-  </si>
-  <si>
-    <t>LUT MAS</t>
-  </si>
-  <si>
-    <t>BLOWFISH</t>
-  </si>
-  <si>
-    <t>LUT MAS XOR</t>
-  </si>
-  <si>
-    <t>LUT BR</t>
-  </si>
-  <si>
-    <t>AES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IDEA BLOWFISH CAST128 GOST RC5 SEED TWOFISH RC6 SERPENT TEA XTEA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS XOR</t>
-  </si>
-  <si>
-    <t>IDEA BLOWFISH CAST128 RC5 SEED TWOFISH TEA XTEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS XOR XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH SEED TWOFISH </t>
-  </si>
-  <si>
-    <t>MAS XOR SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 TEA XTEA </t>
-  </si>
-  <si>
-    <t>MAS XOR MAS</t>
-  </si>
-  <si>
-    <t>BLOWFISH CAST128 XTEA</t>
-  </si>
-  <si>
-    <t>MAS MAS</t>
-  </si>
-  <si>
-    <t>CAST128 TWOFISH TEA</t>
-  </si>
-  <si>
-    <t>MAS MAS XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 TWOFISH TEA </t>
-  </si>
-  <si>
-    <t>MAS XOR MAS XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH XTEA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 SERPENT </t>
-  </si>
-  <si>
-    <t>MA SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT XOR</t>
-  </si>
-  <si>
-    <t>GFM XOR</t>
-  </si>
-  <si>
-    <t>SUB XOR</t>
-  </si>
-  <si>
-    <t>BR XOR</t>
-  </si>
-  <si>
-    <t>BR GFM XOR</t>
-  </si>
-  <si>
-    <t>BR GFM</t>
-  </si>
-  <si>
-    <t>BR XOR XOR</t>
-  </si>
-  <si>
-    <t>MM XOR</t>
-  </si>
-  <si>
-    <t>MAS LUT</t>
-  </si>
-  <si>
-    <t>GOST SEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 GOST RC5 TWOFISH SM4 RC6 SERPENT TEA XTEA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST SM4 RC6 SERPENT TEA </t>
-  </si>
-  <si>
-    <t>SH MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 RC6 SERPENT XTEA </t>
-  </si>
-  <si>
-    <t>SH XOR MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST TEA </t>
-  </si>
-  <si>
-    <t>SH MAS XOR</t>
-  </si>
-  <si>
-    <t>RC5 XTEA</t>
-  </si>
-  <si>
-    <t>SH LUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 TWOFISH </t>
-  </si>
-  <si>
-    <t>SH XOR XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM4 </t>
-  </si>
-  <si>
-    <t>算法</t>
-  </si>
-  <si>
-    <t>XOR SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC5 TWOFISH RC6 TEA XTEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC5 TEA XTEA</t>
-  </si>
-  <si>
-    <t>GOST SM4 SERPENT</t>
-  </si>
-  <si>
-    <t>XOR LUT SH</t>
-  </si>
-  <si>
-    <t>SM4 SERPENT</t>
-  </si>
-  <si>
     <t>MAS SH</t>
-  </si>
-  <si>
-    <t>XOR XOR SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWOFISH </t>
-  </si>
-  <si>
-    <t>XOR MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH CAST128 GOST SEED TEA XTEA </t>
-  </si>
-  <si>
-    <t>RC5 RC6 SERPENT XTEA</t>
-  </si>
-  <si>
-    <t>XOR SH MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 RC6 XTEA </t>
-  </si>
-  <si>
-    <t>XOR MAS MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 TEA </t>
-  </si>
-  <si>
-    <t>XOR MM</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA SEED SM4 SERPENT SKIPJECT </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR LUT</t>
-  </si>
-  <si>
-    <t>XOR XOR LUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH CAMELLIA SEED SM4 SKIPJECT </t>
-  </si>
-  <si>
-    <t>5/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR XOR LUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEED SM4 SKIPJECT </t>
-  </si>
-  <si>
-    <t>XOR MAS LUT</t>
-  </si>
-  <si>
-    <t>CAST128 TWOFISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XOR XOR SH LUT</t>
-  </si>
-  <si>
-    <t>TWOFISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES </t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR SUB</t>
-  </si>
-  <si>
-    <t>DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR XOR BR</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR BR</t>
-  </si>
-  <si>
-    <t>XOR LUT BR</t>
-  </si>
-  <si>
-    <t>XOR BR</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级级联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级级联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级级联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AES DES IDEA BLOWFISH CAMELLIA CAST128 GOST RC5 SEED TWOFISH SM4 RC6 SERPENT TEA XTEA SKIPJECT </t>
-  </si>
-  <si>
-    <t>16/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH CAMELLIA SEED TWOFISH SM4 SKIPJECT </t>
-  </si>
-  <si>
-    <t>XOR XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR XOR</t>
-  </si>
-  <si>
-    <t>XOR XOR XOR XOR</t>
-  </si>
-  <si>
-    <t>4/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SM4 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA SEED SM4 SKIPJECT </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,7 +2218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2294,6 +2294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,7 +2497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2655,116 +2661,149 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2775,14 +2814,17 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2790,47 +2832,17 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3047,6 +3059,163 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>302559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="168088" y="11037794"/>
+          <a:ext cx="5793442" cy="3104029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>XOR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：抑或</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：移位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MAS:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模加</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：模乘</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GFM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：有限域乘法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：字节移位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LUT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：查找表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SUB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：置换</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表格整理了每一种算子的前缀算子和后缀算子，以及出现的概率，在缺定架构时根据这些信息确定一种算子前后的功能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>431427</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3145,7 +3314,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3672,137 +3841,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65" t="s">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="63" t="s">
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="62" t="s">
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="60" t="s">
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60" t="s">
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="61" t="s">
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61" t="s">
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="59" t="s">
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59" t="s">
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="57" t="s">
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57" t="s">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
     </row>
     <row r="2" spans="1:58" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="S2" s="71"/>
+      <c r="T2" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="63"/>
+      <c r="U2" s="71"/>
       <c r="V2" s="22" t="s">
         <v>86</v>
       </c>
@@ -3812,21 +3981,21 @@
       <c r="X2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62" t="s">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62" t="s">
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="23" t="s">
         <v>73</v>
       </c>
@@ -3836,67 +4005,67 @@
       <c r="AJ2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" s="60" t="s">
+      <c r="AK2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60" t="s">
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="AO2" s="60" t="s">
+      <c r="AO2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AP2" s="60" t="s">
+      <c r="AP2" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="AQ2" s="61" t="s">
+      <c r="AQ2" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61" t="s">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="61" t="s">
+      <c r="AT2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="61" t="s">
+      <c r="AU2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="59" t="s">
+      <c r="AV2" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="59"/>
+      <c r="AW2" s="67"/>
       <c r="AX2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AY2" s="59" t="s">
+      <c r="AY2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="AZ2" s="59" t="s">
+      <c r="AZ2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="59" t="s">
+      <c r="BA2" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="BB2" s="57" t="s">
+      <c r="BB2" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="57" t="s">
+      <c r="BC2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="BD2" s="57" t="s">
+      <c r="BD2" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="BE2" s="57" t="s">
+      <c r="BE2" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="BF2" s="57" t="s">
+      <c r="BF2" s="65" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="21" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
@@ -3936,9 +4105,9 @@
       <c r="N3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
       <c r="R3" s="22" t="s">
         <v>78</v>
       </c>
@@ -3993,18 +4162,18 @@
       <c r="AM3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
       <c r="AQ3" s="29" t="s">
         <v>301</v>
       </c>
       <c r="AR3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
       <c r="AV3" s="24" t="s">
         <v>84</v>
       </c>
@@ -4014,14 +4183,14 @@
       <c r="AX3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
     </row>
     <row r="4" spans="1:58" s="42" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="48"/>
@@ -5095,53 +5264,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="83" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="90" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -5164,7 +5333,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="7" t="s">
         <v>246</v>
       </c>
@@ -5179,7 +5348,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="7" t="s">
         <v>247</v>
       </c>
@@ -5194,7 +5363,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
@@ -5209,7 +5378,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>250</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -5221,11 +5390,11 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78" t="s">
+      <c r="G7" s="86"/>
+      <c r="H7" s="86" t="s">
         <v>272</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -5236,7 +5405,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="7" t="s">
         <v>249</v>
       </c>
@@ -5246,9 +5415,9 @@
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="11" t="s">
         <v>284</v>
       </c>
@@ -5257,7 +5426,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="83" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -5289,7 +5458,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="7" t="s">
         <v>252</v>
       </c>
@@ -5316,7 +5485,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
@@ -5346,10 +5515,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="75"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
@@ -5370,10 +5539,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
@@ -5391,10 +5560,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="75"/>
       <c r="F14" s="10" t="s">
         <v>279</v>
       </c>
@@ -5412,10 +5581,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
@@ -5430,7 +5599,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="76" t="s">
         <v>298</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -5454,7 +5623,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="15" t="s">
         <v>302</v>
       </c>
@@ -5515,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5525,7 +5694,7 @@
     <col min="2" max="2" width="22.625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
     <col min="4" max="4" width="9" style="51"/>
-    <col min="5" max="5" width="36.125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="51" customWidth="1"/>
     <col min="6" max="6" width="9" style="51"/>
     <col min="7" max="7" width="11.875" style="51" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="51" customWidth="1"/>
@@ -5544,135 +5713,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="109" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="92" t="s">
+      <c r="C1" s="109"/>
+      <c r="D1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="94"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="105"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="C2" s="98" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="110" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="110" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="92" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="92" t="s">
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="105"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="108" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="108" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="108" t="s">
+      <c r="E3" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="H3" s="108" t="s">
-        <v>425</v>
-      </c>
-      <c r="I3" s="108" t="s">
+      <c r="H3" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="108" t="s">
-        <v>425</v>
-      </c>
-      <c r="L3" s="108" t="s">
+      <c r="K3" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="L3" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="N3" s="110" t="s">
-        <v>425</v>
-      </c>
-      <c r="O3" s="110" t="s">
+      <c r="N3" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="O3" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="Q3" s="110" t="s">
-        <v>425</v>
-      </c>
-      <c r="R3" s="110" t="s">
+      <c r="Q3" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="R3" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="S3" s="110" t="s">
+      <c r="S3" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="T3" s="110" t="s">
-        <v>425</v>
-      </c>
-      <c r="U3" s="110" t="s">
+      <c r="T3" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="U3" s="58" t="s">
         <v>329</v>
       </c>
       <c r="V3" s="52"/>
@@ -5683,1503 +5852,1503 @@
       <c r="AA3" s="52"/>
     </row>
     <row r="4" spans="1:27" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="E4" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="F4" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="95"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E5" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="G4" s="109" t="s">
-        <v>417</v>
-      </c>
-      <c r="H4" s="109" t="s">
-        <v>418</v>
-      </c>
-      <c r="I4" s="109" t="s">
-        <v>446</v>
-      </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="111" t="s">
-        <v>426</v>
-      </c>
-      <c r="N4" s="111" t="s">
-        <v>427</v>
-      </c>
-      <c r="O4" s="111" t="s">
+      <c r="G6" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="O6" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P6" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="95"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="95"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="95"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+    </row>
+    <row r="14" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="N14" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="R14" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="95"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="Q4" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="R4" s="111" t="s">
-        <v>445</v>
-      </c>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="109" t="s">
+      <c r="I15" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="R15" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+    </row>
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="95"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="N16" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="O16" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="P16" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q16" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="R16" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="95"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="Q17" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="F5" s="109" t="s">
-        <v>461</v>
-      </c>
-      <c r="G5" s="109" t="s">
+      <c r="R17" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+    </row>
+    <row r="19" spans="1:27" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="112" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="R19" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="S19" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="T19" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="U19" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="113"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="M20" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="H5" s="109" t="s">
-        <v>420</v>
-      </c>
-      <c r="I5" s="109" t="s">
-        <v>463</v>
-      </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="111" t="s">
-        <v>372</v>
-      </c>
-      <c r="N5" s="111" t="s">
-        <v>429</v>
-      </c>
-      <c r="O5" s="111" t="s">
-        <v>449</v>
-      </c>
-      <c r="P5" s="111" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q5" s="111" t="s">
-        <v>431</v>
-      </c>
-      <c r="R5" s="111" t="s">
-        <v>446</v>
-      </c>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="109" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="109" t="s">
-        <v>462</v>
-      </c>
-      <c r="G6" s="109" t="s">
-        <v>423</v>
-      </c>
-      <c r="H6" s="109" t="s">
-        <v>424</v>
-      </c>
-      <c r="I6" s="109" t="s">
-        <v>464</v>
-      </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="111" t="s">
-        <v>432</v>
-      </c>
-      <c r="N6" s="111" t="s">
-        <v>399</v>
-      </c>
-      <c r="O6" s="111" t="s">
-        <v>450</v>
-      </c>
-      <c r="P6" s="111" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q6" s="111" t="s">
-        <v>434</v>
-      </c>
-      <c r="R6" s="111" t="s">
-        <v>447</v>
-      </c>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>342</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>363</v>
-      </c>
-      <c r="D9" s="109" t="s">
+      <c r="N20" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="P20" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q20" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="E9" s="109" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="109" t="s">
+      <c r="R20" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="S20" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="T20" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="U20" s="59" t="s">
+        <v>472</v>
+      </c>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="113"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="113"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="114"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="94" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="111" t="s">
-        <v>442</v>
-      </c>
-      <c r="N9" s="111" t="s">
-        <v>443</v>
-      </c>
-      <c r="O9" s="111" t="s">
-        <v>444</v>
-      </c>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-    </row>
-    <row r="14" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>383</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>385</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>386</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="109" t="s">
-        <v>387</v>
-      </c>
-      <c r="H14" s="109" t="s">
-        <v>388</v>
-      </c>
-      <c r="I14" s="109" t="s">
-        <v>465</v>
-      </c>
-      <c r="J14" s="109" t="s">
-        <v>397</v>
-      </c>
-      <c r="K14" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="L14" s="109" t="s">
-        <v>456</v>
-      </c>
-      <c r="M14" s="111" t="s">
-        <v>435</v>
-      </c>
-      <c r="N14" s="111" t="s">
-        <v>436</v>
-      </c>
-      <c r="O14" s="111" t="s">
-        <v>451</v>
-      </c>
-      <c r="P14" s="111" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q14" s="111" t="s">
-        <v>439</v>
-      </c>
-      <c r="R14" s="111" t="s">
-        <v>454</v>
-      </c>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-    </row>
-    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>394</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>467</v>
-      </c>
-      <c r="G15" s="109" t="s">
-        <v>389</v>
-      </c>
-      <c r="H15" s="109" t="s">
-        <v>390</v>
-      </c>
-      <c r="I15" s="109" t="s">
-        <v>466</v>
-      </c>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="111" t="s">
-        <v>415</v>
-      </c>
-      <c r="N15" s="111" t="s">
-        <v>437</v>
-      </c>
-      <c r="O15" s="111" t="s">
-        <v>452</v>
-      </c>
-      <c r="P15" s="111" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q15" s="111" t="s">
-        <v>392</v>
-      </c>
-      <c r="R15" s="111" t="s">
-        <v>455</v>
-      </c>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-    </row>
-    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="109" t="s">
-        <v>400</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>399</v>
-      </c>
-      <c r="F16" s="109" t="s">
-        <v>469</v>
-      </c>
-      <c r="G16" s="109" t="s">
-        <v>391</v>
-      </c>
-      <c r="H16" s="109" t="s">
-        <v>392</v>
-      </c>
-      <c r="I16" s="109" t="s">
-        <v>467</v>
-      </c>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="111" t="s">
-        <v>393</v>
-      </c>
-      <c r="N16" s="111" t="s">
-        <v>396</v>
-      </c>
-      <c r="O16" s="111" t="s">
-        <v>453</v>
-      </c>
-      <c r="P16" s="111" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q16" s="111" t="s">
-        <v>441</v>
-      </c>
-      <c r="R16" s="111" t="s">
-        <v>456</v>
-      </c>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-    </row>
-    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="109" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" s="109" t="s">
-        <v>410</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>470</v>
-      </c>
-      <c r="G17" s="109" t="s">
-        <v>395</v>
-      </c>
-      <c r="H17" s="109" t="s">
-        <v>396</v>
-      </c>
-      <c r="I17" s="109" t="s">
-        <v>466</v>
-      </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q17" s="111" t="s">
-        <v>418</v>
-      </c>
-      <c r="R17" s="111" t="s">
-        <v>457</v>
-      </c>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-    </row>
-    <row r="19" spans="1:27" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="B19" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>293</v>
-      </c>
-      <c r="D19" s="109" t="s">
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="95"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+    </row>
+    <row r="26" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="95"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="95"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="96"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="57" t="s">
         <v>401</v>
       </c>
-      <c r="E19" s="109" t="s">
-        <v>367</v>
-      </c>
-      <c r="F19" s="109" t="s">
-        <v>471</v>
-      </c>
-      <c r="G19" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="H19" s="109" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" s="109" t="s">
-        <v>466</v>
-      </c>
-      <c r="J19" s="109" t="s">
-        <v>370</v>
-      </c>
-      <c r="K19" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="L19" s="109" t="s">
-        <v>465</v>
-      </c>
-      <c r="M19" s="111" t="s">
-        <v>477</v>
-      </c>
-      <c r="N19" s="111" t="s">
-        <v>458</v>
-      </c>
-      <c r="O19" s="111" t="s">
-        <v>459</v>
-      </c>
-      <c r="P19" s="111" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q19" s="111" t="s">
-        <v>479</v>
-      </c>
-      <c r="R19" s="111" t="s">
-        <v>480</v>
-      </c>
-      <c r="S19" s="111" t="s">
-        <v>481</v>
-      </c>
-      <c r="T19" s="111" t="s">
-        <v>482</v>
-      </c>
-      <c r="U19" s="111" t="s">
-        <v>454</v>
-      </c>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="109" t="s">
-        <v>372</v>
-      </c>
-      <c r="E20" s="109" t="s">
-        <v>373</v>
-      </c>
-      <c r="F20" s="109" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" s="109" t="s">
-        <v>374</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>375</v>
-      </c>
-      <c r="I20" s="109" t="s">
-        <v>475</v>
-      </c>
-      <c r="J20" s="109" t="s">
-        <v>376</v>
-      </c>
-      <c r="K20" s="109" t="s">
-        <v>377</v>
-      </c>
-      <c r="L20" s="109" t="s">
-        <v>474</v>
-      </c>
-      <c r="M20" s="111" t="s">
-        <v>421</v>
-      </c>
-      <c r="N20" s="111" t="s">
-        <v>484</v>
-      </c>
-      <c r="O20" s="111" t="s">
-        <v>456</v>
-      </c>
-      <c r="P20" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q20" s="111" t="s">
-        <v>410</v>
-      </c>
-      <c r="R20" s="111" t="s">
-        <v>456</v>
-      </c>
-      <c r="S20" s="111" t="s">
-        <v>485</v>
-      </c>
-      <c r="T20" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="U20" s="111" t="s">
-        <v>474</v>
-      </c>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="109" t="s">
-        <v>378</v>
-      </c>
-      <c r="E21" s="109" t="s">
-        <v>379</v>
-      </c>
-      <c r="F21" s="109" t="s">
-        <v>473</v>
-      </c>
-      <c r="G21" s="109" t="s">
+      <c r="E29" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="O29" s="59" t="s">
+        <v>489</v>
+      </c>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="95"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="95"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="95"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="96"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="K34" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="L34" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="N34" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="O34" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="P34" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q34" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="R34" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="S34" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="T34" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="U34" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="95"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="H21" s="109" t="s">
-        <v>379</v>
-      </c>
-      <c r="I21" s="109" t="s">
-        <v>476</v>
-      </c>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="111" t="s">
-        <v>409</v>
-      </c>
-      <c r="N21" s="111" t="s">
-        <v>410</v>
-      </c>
-      <c r="O21" s="111" t="s">
-        <v>456</v>
-      </c>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="106"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="109" t="s">
-        <v>381</v>
-      </c>
-      <c r="E22" s="109" t="s">
-        <v>382</v>
-      </c>
-      <c r="F22" s="109" t="s">
-        <v>474</v>
-      </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" s="109" t="s">
-        <v>402</v>
-      </c>
-      <c r="E24" s="109" t="s">
+      <c r="N35" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="O35" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="P35" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q35" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="F24" s="109" t="s">
+      <c r="R35" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="111" t="s">
-        <v>406</v>
-      </c>
-      <c r="N24" s="111" t="s">
-        <v>487</v>
-      </c>
-      <c r="O24" s="111" t="s">
-        <v>488</v>
-      </c>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-    </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86" t="s">
-        <v>345</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>359</v>
-      </c>
-      <c r="C29" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="109" t="s">
-        <v>403</v>
-      </c>
-      <c r="E29" s="109" t="s">
-        <v>360</v>
-      </c>
-      <c r="F29" s="109" t="s">
-        <v>492</v>
-      </c>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="111" t="s">
-        <v>489</v>
-      </c>
-      <c r="N29" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="O29" s="111" t="s">
-        <v>491</v>
-      </c>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="87"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="B34" s="89" t="s">
-        <v>347</v>
-      </c>
-      <c r="C34" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="D34" s="109" t="s">
-        <v>404</v>
-      </c>
-      <c r="E34" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="F34" s="109" t="s">
-        <v>349</v>
-      </c>
-      <c r="G34" s="109" t="s">
-        <v>405</v>
-      </c>
-      <c r="H34" s="109" t="s">
-        <v>356</v>
-      </c>
-      <c r="I34" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="J34" s="109" t="s">
-        <v>357</v>
-      </c>
-      <c r="K34" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="L34" s="109" t="s">
-        <v>358</v>
-      </c>
-      <c r="M34" s="111" t="s">
-        <v>497</v>
-      </c>
-      <c r="N34" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="O34" s="111" t="s">
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="95"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="95"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="96"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+    </row>
+    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63" t="s">
         <v>498</v>
       </c>
-      <c r="P34" s="111" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q34" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="R34" s="111" t="s">
-        <v>494</v>
-      </c>
-      <c r="S34" s="111" t="s">
-        <v>493</v>
-      </c>
-      <c r="T34" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="U34" s="111" t="s">
-        <v>352</v>
-      </c>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-    </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="109" t="s">
-        <v>406</v>
-      </c>
-      <c r="E35" s="109" t="s">
-        <v>355</v>
-      </c>
-      <c r="F35" s="109" t="s">
-        <v>350</v>
-      </c>
-      <c r="G35" s="109" t="s">
-        <v>407</v>
-      </c>
-      <c r="H35" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="I35" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="111" t="s">
-        <v>381</v>
-      </c>
-      <c r="N35" s="111" t="s">
-        <v>354</v>
-      </c>
-      <c r="O35" s="111" t="s">
-        <v>498</v>
-      </c>
-      <c r="P35" s="111" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q35" s="111" t="s">
-        <v>356</v>
-      </c>
-      <c r="R35" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-    </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-    </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-    </row>
-    <row r="39" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="64"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63" t="s">
         <v>500</v>
       </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
     </row>
     <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="F40" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="H40" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="I40" s="12" t="s">
+      <c r="K40" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -7200,15 +7369,15 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="112"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -7229,15 +7398,15 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="112"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="112"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
@@ -7258,15 +7427,15 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-      <c r="M43" s="112"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
-      <c r="R43" s="112"/>
-      <c r="S43" s="112"/>
-      <c r="T43" s="112"/>
-      <c r="U43" s="112"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -7287,15 +7456,15 @@
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
       <c r="X44" s="54"/>
@@ -7316,15 +7485,15 @@
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
       <c r="V45" s="54"/>
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
@@ -7335,8 +7504,13 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="B9:B13"/>
@@ -7348,22 +7522,17 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
     <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7373,6 +7542,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7397,44 +7567,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="115" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104"/>
+      <c r="A2" s="115"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -7447,14 +7617,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="算法统计_新" sheetId="3" r:id="rId1"/>
     <sheet name="算子统计_新" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
-    <sheet name="算子统计" sheetId="2" r:id="rId4"/>
-    <sheet name="算法统计" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="算子统计" sheetId="2" r:id="rId5"/>
+    <sheet name="算法统计" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="525">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,30 +557,6 @@
   <si>
     <t>xor-sbox:1
 gfm-xor:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub-xor:1
-xor-sub:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xor-sub-xor：1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub-xor:1
-xor-sub:1
-xor-sbox:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbox-sub:1
-xor-Sbox:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xor-sub-xor:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1257,13 +1234,6 @@
   </si>
   <si>
     <t>128-128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64-64：
-32-48：
-32-32：
-128-128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1424,10 +1394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>置换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,10 +1524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1751,9 +1713,6 @@
     <t>GFM XOR</t>
   </si>
   <si>
-    <t>SUB XOR</t>
-  </si>
-  <si>
     <t>BR XOR</t>
   </si>
   <si>
@@ -2049,9 +2008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XOR SUB</t>
-  </si>
-  <si>
     <t>DES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2146,6 +2102,97 @@
   <si>
     <t>MAS SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per-xor:1
+xor-per:1
+xor-sbox:1</t>
+  </si>
+  <si>
+    <t>xor-per-xor:1</t>
+  </si>
+  <si>
+    <t>Sbox-per:1
+xor-Sbox:1</t>
+  </si>
+  <si>
+    <t>per-xor:1
+xor-per:1</t>
+  </si>
+  <si>
+    <t>xor-per-xor：1</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PER XOR</t>
+  </si>
+  <si>
+    <t>XOR PER</t>
+  </si>
+  <si>
+    <t>64-64：
+32-48：
+32-32：
+128-128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64-64：
+32-48：
+32-32：
+128-128:
+32-40:
+PER（K）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1:1+lucifer?+ICE:1+square(byte):ICE:ICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-4:
+6-4:
+8-8: 
+8-32:
+6-2:
+10-8  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+clefia++aquare+SHARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simon++CS-Cipher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+Lucifer:10+speck+C2+M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2+MacGuffin++CS-Cipher:6+speck+simon+C2+M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+lucifer:1:6+clefia+aria+C2+aquare+SHARK+CS-Cipher:1:MacGuffin:ICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16+speck+simon+Lucifer+clefia+C2+MacGuffin+aquare+M6+ICE+SHARK+CS-Cipher+NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUSH</t>
   </si>
 </sst>
 </file>
@@ -2694,29 +2741,77 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2730,54 +2825,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2796,6 +2843,33 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2804,33 +2878,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3059,16 +3106,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>302559</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3077,7 +3124,117 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168088" y="11037794"/>
+          <a:off x="8229600" y="2019300"/>
+          <a:ext cx="3314700" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>特定算法优化支持：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有限域乘法优化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RC6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*2+1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2162736</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12617823"/>
           <a:ext cx="5793442" cy="3104029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3191,7 +3348,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SUB</a:t>
+            <a:t>PER</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -3212,7 +3369,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3314,7 +3471,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3773,10 +3930,10 @@
   <dimension ref="A1:BF30"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -3841,56 +3998,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="70" t="s">
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70" t="s">
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
       <c r="AK1" s="68" t="s">
         <v>87</v>
       </c>
@@ -3910,68 +4067,68 @@
       </c>
       <c r="AT1" s="69"/>
       <c r="AU1" s="69"/>
-      <c r="AV1" s="67" t="s">
+      <c r="AV1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67" t="s">
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
       <c r="BB1" s="65" t="s">
         <v>133</v>
       </c>
       <c r="BC1" s="65"/>
       <c r="BD1" s="65" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="BE1" s="65"/>
       <c r="BF1" s="65"/>
     </row>
     <row r="2" spans="1:58" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="70"/>
+      <c r="T2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="71"/>
+      <c r="U2" s="70"/>
       <c r="V2" s="22" t="s">
         <v>86</v>
       </c>
@@ -3981,21 +4138,21 @@
       <c r="X2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="70" t="s">
+      <c r="Y2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70" t="s">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70" t="s">
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="23" t="s">
         <v>73</v>
       </c>
@@ -4032,20 +4189,20 @@
       <c r="AU2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="67" t="s">
+      <c r="AV2" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="67"/>
+      <c r="AW2" s="66"/>
       <c r="AX2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AY2" s="67" t="s">
+      <c r="AY2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AZ2" s="67" t="s">
+      <c r="AZ2" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="67" t="s">
+      <c r="BA2" s="66" t="s">
         <v>75</v>
       </c>
       <c r="BB2" s="65" t="s">
@@ -4055,17 +4212,17 @@
         <v>3</v>
       </c>
       <c r="BD2" s="65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="BE2" s="65" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="BF2" s="65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="21" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
@@ -4105,9 +4262,9 @@
       <c r="N3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
       <c r="R3" s="22" t="s">
         <v>78</v>
       </c>
@@ -4166,7 +4323,7 @@
       <c r="AO3" s="68"/>
       <c r="AP3" s="68"/>
       <c r="AQ3" s="29" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AR3" s="29" t="s">
         <v>92</v>
@@ -4183,9 +4340,9 @@
       <c r="AX3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
       <c r="BB3" s="65"/>
       <c r="BC3" s="65"/>
       <c r="BD3" s="65"/>
@@ -4227,10 +4384,10 @@
       <c r="AG4" s="46"/>
       <c r="AH4" s="46"/>
       <c r="AI4" s="46" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AJ4" s="46" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK4" s="44"/>
       <c r="AL4" s="44"/>
@@ -4332,7 +4489,7 @@
         <v>139</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T6" s="33">
         <v>1</v>
@@ -4341,7 +4498,7 @@
         <v>32</v>
       </c>
       <c r="AJ6" s="34" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AK6" s="35">
         <v>1</v>
@@ -4380,10 +4537,10 @@
         <v>32</v>
       </c>
       <c r="BD6" s="39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="BE6" s="39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4406,10 +4563,10 @@
         <v>134</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>144</v>
+        <v>506</v>
       </c>
       <c r="AK7" s="35">
         <v>1</v>
@@ -4421,19 +4578,19 @@
         <v>4</v>
       </c>
       <c r="AN7" s="35" t="s">
-        <v>143</v>
+        <v>507</v>
       </c>
       <c r="AV7" s="37">
         <v>2</v>
       </c>
       <c r="AW7" s="37" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AY7" s="37" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
       <c r="AZ7" s="37" t="s">
-        <v>141</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4447,16 +4604,16 @@
         <v>16</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Y8" s="34">
         <v>2</v>
       </c>
       <c r="Z8" s="34" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AA8" s="34">
         <v>16</v>
@@ -4465,16 +4622,16 @@
         <v>3</v>
       </c>
       <c r="AF8" s="34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AG8" s="34">
         <v>16</v>
       </c>
       <c r="AH8" s="34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AI8" s="34" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4488,28 +4645,28 @@
         <v>32</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Y9" s="34">
         <v>2</v>
       </c>
       <c r="Z9" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA9" s="34">
         <v>32</v>
       </c>
       <c r="AH9" s="34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AI9" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AJ9" s="34" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AK9" s="35">
         <v>1</v>
@@ -4521,10 +4678,10 @@
         <v>32</v>
       </c>
       <c r="AN9" s="35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AO9" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4535,16 +4692,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AK10" s="35">
         <v>1</v>
@@ -4556,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="AN10" s="35" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AO10" s="35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="243.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4570,13 +4727,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T11" s="27">
         <v>1</v>
@@ -4585,16 +4742,16 @@
         <v>32</v>
       </c>
       <c r="V11" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y11" s="34">
         <v>2</v>
       </c>
       <c r="Z11" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA11" s="34">
         <v>32</v>
@@ -4603,13 +4760,13 @@
         <v>2</v>
       </c>
       <c r="AC11" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AD11" s="34">
         <v>32</v>
       </c>
       <c r="AH11" s="34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AK11" s="35">
         <v>1</v>
@@ -4621,10 +4778,10 @@
         <v>8</v>
       </c>
       <c r="AN11" s="35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AO11" s="35" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4635,13 +4792,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T12" s="27">
         <v>1</v>
@@ -4650,25 +4807,25 @@
         <v>32</v>
       </c>
       <c r="V12" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="W12" s="27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Y12" s="34">
         <v>1</v>
       </c>
       <c r="Z12" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA12" s="34">
         <v>32</v>
       </c>
       <c r="AH12" s="34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AI12" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AK12" s="35">
         <v>1</v>
@@ -4680,10 +4837,10 @@
         <v>4</v>
       </c>
       <c r="AN12" s="35" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AO12" s="35" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4694,13 +4851,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="T13" s="27">
         <v>1</v>
@@ -4709,25 +4866,25 @@
         <v>32</v>
       </c>
       <c r="V13" s="27" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="W13" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Y13" s="34">
         <v>1</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA13" s="34">
         <v>32</v>
       </c>
       <c r="AH13" s="34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AI13" s="34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="216.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4738,31 +4895,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O14" s="31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Y14" s="34">
         <v>3</v>
       </c>
       <c r="Z14" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AA14" s="34">
         <v>32</v>
       </c>
       <c r="AH14" s="34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AI14" s="34" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AK14" s="35">
         <v>1</v>
@@ -4774,10 +4931,10 @@
         <v>8</v>
       </c>
       <c r="AN14" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AO14" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4788,10 +4945,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O15" s="31" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="T15" s="27">
         <v>1</v>
@@ -4800,19 +4957,19 @@
         <v>32</v>
       </c>
       <c r="V15" s="27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Y15" s="34">
         <v>3</v>
       </c>
       <c r="Z15" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA15" s="34">
         <v>32</v>
       </c>
       <c r="AH15" s="34" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AK15" s="35">
         <v>1</v>
@@ -4824,7 +4981,7 @@
         <v>8</v>
       </c>
       <c r="AN15" s="35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AQ15" s="36">
         <v>1</v>
@@ -4833,7 +4990,7 @@
         <v>32</v>
       </c>
       <c r="AS15" s="36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="135.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4844,16 +5001,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R16" s="27">
         <v>1</v>
@@ -4862,10 +5019,10 @@
         <v>32</v>
       </c>
       <c r="V16" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="W16" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AK16" s="35">
         <v>1</v>
@@ -4877,10 +5034,10 @@
         <v>8</v>
       </c>
       <c r="AN16" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AO16" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:49" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4891,13 +5048,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O17" s="31" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="T17" s="27">
         <v>2</v>
@@ -4906,16 +5063,16 @@
         <v>32</v>
       </c>
       <c r="V17" s="27" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y17" s="34">
         <v>1</v>
       </c>
       <c r="Z17" s="34" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AA17" s="34">
         <v>32</v>
@@ -4924,16 +5081,16 @@
         <v>1</v>
       </c>
       <c r="AF17" s="34" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG17" s="34">
         <v>32</v>
       </c>
       <c r="AH17" s="34" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AI17" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:49" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4944,13 +5101,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R18" s="27">
         <v>2</v>
@@ -4965,25 +5122,25 @@
         <v>32</v>
       </c>
       <c r="V18" s="27" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y18" s="34">
         <v>2</v>
       </c>
       <c r="Z18" s="34" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="34">
         <v>32</v>
       </c>
       <c r="AH18" s="34" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AI18" s="34" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AK18" s="35">
         <v>1</v>
@@ -4995,13 +5152,13 @@
         <v>4</v>
       </c>
       <c r="AN18" s="35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AO18" s="35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AW18" s="40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5012,13 +5169,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="R19" s="27">
         <v>1</v>
@@ -5027,25 +5184,25 @@
         <v>32</v>
       </c>
       <c r="V19" s="27" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="W19" s="27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Y19" s="34">
         <v>2</v>
       </c>
       <c r="Z19" s="34" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AA19" s="34">
         <v>32</v>
       </c>
       <c r="AH19" s="34" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AI19" s="34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:49" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5056,13 +5213,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R20" s="27">
         <v>1</v>
@@ -5071,25 +5228,25 @@
         <v>32</v>
       </c>
       <c r="V20" s="27" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="W20" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Y20" s="34">
         <v>2</v>
       </c>
       <c r="Z20" s="34" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AA20" s="34">
         <v>32</v>
       </c>
       <c r="AH20" s="34" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AI20" s="34" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:49" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5100,101 +5257,118 @@
         <v>10</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN21" s="35" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AO21" s="35" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M22" s="31" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M23" s="31" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M24" s="31" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M25" s="31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M26" s="31" t="s">
-        <v>312</v>
+        <v>510</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M27" s="31" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:49" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M28" s="31" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M29" s="31" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:49" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M30" s="31" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -5211,29 +5385,12 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5247,7 +5404,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="A1:J17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -5264,54 +5421,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="91" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="78" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="91"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
-        <v>248</v>
+      <c r="A3" s="87" t="s">
+        <v>243</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>109</v>
@@ -5323,66 +5480,66 @@
         <v>16</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
-        <v>250</v>
+      <c r="A7" s="87" t="s">
+        <v>245</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6">
         <v>32</v>
@@ -5390,24 +5547,24 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86" t="s">
-        <v>272</v>
+      <c r="F7" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74" t="s">
+        <v>267</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C8" s="6">
         <v>32</v>
@@ -5415,22 +5572,22 @@
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="87" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C9" s="4">
         <v>0.68888888888888899</v>
@@ -5439,28 +5596,28 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C10" s="6">
         <v>32</v>
@@ -5469,80 +5626,80 @@
         <v>1</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>271</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C11" s="4">
         <v>0.68888888888888899</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="J11" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="75"/>
+      <c r="A12" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="91"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="75"/>
+      <c r="A13" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="91"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
@@ -5553,38 +5710,38 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="75"/>
+      <c r="A14" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="91"/>
       <c r="F14" s="10" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
@@ -5592,18 +5749,18 @@
         <v>1</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>298</v>
+      <c r="A16" s="92" t="s">
+        <v>292</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C16" s="16">
         <v>8</v>
@@ -5616,16 +5773,16 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C17" s="16">
         <v>32</v>
@@ -5638,14 +5795,24 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="17" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -5654,16 +5821,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -5682,10 +5839,462 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14"/>
+    <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="47.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="9" style="11"/>
+    <col min="10" max="10" width="9" style="12"/>
+    <col min="11" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="82"/>
+      <c r="E1" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="88"/>
+      <c r="B4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88"/>
+      <c r="B5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="89"/>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="89"/>
+      <c r="B8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="88"/>
+      <c r="B10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="89"/>
+      <c r="B11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="6">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="F14" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="91"/>
+      <c r="C15" s="6">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="93"/>
+      <c r="B17" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="16">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E31 I3:I22 H3:H21">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E34">
+      <formula1>"是 否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5713,136 +6322,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="102"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="104"/>
+      <c r="B2" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="100" t="s">
+        <v>334</v>
+      </c>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="102"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="105"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="P3" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="103" t="s">
+      <c r="Q3" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="S3" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="105"/>
-    </row>
-    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="110" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="103" t="s">
-        <v>341</v>
-      </c>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="105"/>
-    </row>
-    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>338</v>
-      </c>
       <c r="T3" s="58" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="U3" s="58" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="V3" s="52"/>
       <c r="W3" s="52"/>
@@ -5853,52 +6462,52 @@
     </row>
     <row r="4" spans="1:27" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="94" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>410</v>
+        <v>400</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>401</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
       <c r="M4" s="59" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N4" s="59" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="P4" s="59" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="R4" s="59" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="S4" s="59"/>
       <c r="T4" s="59"/>
@@ -5913,45 +6522,45 @@
     <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="95"/>
       <c r="B5" s="98"/>
-      <c r="C5" s="101"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="57" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="J5" s="57"/>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
       <c r="M5" s="59" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N5" s="59" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="O5" s="59" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P5" s="59" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="R5" s="59" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59"/>
@@ -5966,45 +6575,45 @@
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="95"/>
       <c r="B6" s="98"/>
-      <c r="C6" s="101"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="57" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
       <c r="M6" s="59" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="N6" s="59" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="O6" s="59" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P6" s="59" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="Q6" s="59" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="R6" s="59" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="S6" s="59"/>
       <c r="T6" s="59"/>
@@ -6019,7 +6628,7 @@
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="95"/>
       <c r="B7" s="98"/>
-      <c r="C7" s="101"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -6048,7 +6657,7 @@
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="96"/>
       <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -6076,22 +6685,22 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="57" t="s">
         <v>342</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>363</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>350</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -6100,13 +6709,13 @@
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
       <c r="M9" s="59" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="N9" s="59" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
@@ -6239,58 +6848,58 @@
     </row>
     <row r="14" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="J14" s="57" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L14" s="57" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M14" s="59" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="N14" s="59" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="59" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="R14" s="59" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="S14" s="59"/>
       <c r="T14" s="59"/>
@@ -6307,43 +6916,43 @@
       <c r="B15" s="98"/>
       <c r="C15" s="98"/>
       <c r="D15" s="57" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="57"/>
       <c r="M15" s="59" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="N15" s="59" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="O15" s="59" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q15" s="59" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="R15" s="59" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="S15" s="59"/>
       <c r="T15" s="59"/>
@@ -6360,43 +6969,43 @@
       <c r="B16" s="98"/>
       <c r="C16" s="98"/>
       <c r="D16" s="57" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
       <c r="L16" s="57"/>
       <c r="M16" s="59" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="N16" s="59" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="O16" s="59" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="59" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="R16" s="59" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="S16" s="59"/>
       <c r="T16" s="59"/>
@@ -6413,22 +7022,22 @@
       <c r="B17" s="98"/>
       <c r="C17" s="98"/>
       <c r="D17" s="57" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
@@ -6437,13 +7046,13 @@
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
       <c r="P17" s="59" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="R17" s="59" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="S17" s="59"/>
       <c r="T17" s="59"/>
@@ -6486,67 +7095,67 @@
     </row>
     <row r="19" spans="1:27" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="112" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F19" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="R19" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="G19" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="L19" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="M19" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="N19" s="59" t="s">
-        <v>456</v>
-      </c>
-      <c r="O19" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="P19" s="59" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>477</v>
-      </c>
-      <c r="R19" s="59" t="s">
-        <v>478</v>
-      </c>
       <c r="S19" s="59" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="T19" s="59" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="U19" s="59" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="V19" s="55"/>
       <c r="W19" s="55"/>
@@ -6560,58 +7169,58 @@
       <c r="B20" s="98"/>
       <c r="C20" s="98"/>
       <c r="D20" s="57" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I20" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="M20" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="N20" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="J20" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="K20" s="57" t="s">
-        <v>376</v>
-      </c>
-      <c r="L20" s="57" t="s">
+      <c r="O20" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="P20" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="M20" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="N20" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="O20" s="59" t="s">
-        <v>454</v>
-      </c>
-      <c r="P20" s="59" t="s">
-        <v>481</v>
-      </c>
       <c r="Q20" s="59" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="R20" s="59" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="S20" s="59" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="T20" s="59" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="U20" s="59" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="V20" s="55"/>
       <c r="W20" s="55"/>
@@ -6625,34 +7234,34 @@
       <c r="B21" s="98"/>
       <c r="C21" s="98"/>
       <c r="D21" s="57" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
       <c r="M21" s="59" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N21" s="59" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="O21" s="59" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59"/>
@@ -6672,13 +7281,13 @@
       <c r="B22" s="98"/>
       <c r="C22" s="98"/>
       <c r="D22" s="57" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
@@ -6733,22 +7342,22 @@
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="94" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C24" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="57" t="s">
-        <v>400</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>356</v>
-      </c>
       <c r="F24" s="57" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
@@ -6757,13 +7366,13 @@
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
       <c r="M24" s="59" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="N24" s="59" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="O24" s="59" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59"/>
@@ -6896,22 +7505,22 @@
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94" t="s">
-        <v>345</v>
+        <v>511</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
@@ -6920,13 +7529,13 @@
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
       <c r="M29" s="59" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="N29" s="59" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="O29" s="59" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
@@ -7059,67 +7668,67 @@
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="94" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B34" s="97" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C34" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="H34" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>402</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="F34" s="57" t="s">
+      <c r="I34" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="J34" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="G34" s="57" t="s">
-        <v>403</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="I34" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="J34" s="57" t="s">
-        <v>357</v>
-      </c>
       <c r="K34" s="57" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L34" s="57" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M34" s="59" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="N34" s="59" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="O34" s="59" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="P34" s="59" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="Q34" s="59" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="R34" s="59" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="S34" s="59" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="T34" s="59" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="U34" s="59" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="V34" s="55"/>
       <c r="W34" s="55"/>
@@ -7133,43 +7742,43 @@
       <c r="B35" s="98"/>
       <c r="C35" s="98"/>
       <c r="D35" s="57" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F35" s="57" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H35" s="57" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I35" s="57" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
       <c r="M35" s="59" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="N35" s="59" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="O35" s="59" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="P35" s="59" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="Q35" s="59" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="R35" s="59" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="S35" s="59"/>
       <c r="T35" s="59"/>
@@ -7273,17 +7882,17 @@
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="63"/>
       <c r="G39" s="63" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="63" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="K39" s="63"/>
       <c r="L39" s="63"/>
@@ -7305,40 +7914,40 @@
     </row>
     <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>507</v>
-      </c>
       <c r="K40" s="12" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="M40" s="60"/>
       <c r="N40" s="60"/>
@@ -7504,6 +8113,24 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D2:L2"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="A34:A38"/>
@@ -7513,26 +8140,8 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7546,7 +8155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -7690,17 +8299,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7709,7 +8318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="526">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2155,10 +2155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:1:1+lucifer?+ICE:1+square(byte):ICE:ICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">4-4:
 6-4:
 8-8: 
@@ -2168,31 +2164,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2+clefia++aquare+SHARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>simon++CS-Cipher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+Lucifer:10+speck+C2+M6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2+MacGuffin++CS-Cipher:6+speck+simon+C2+M6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+lucifer:1:6+clefia+aria+C2+aquare+SHARK+CS-Cipher:1:MacGuffin:ICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16+speck+simon+Lucifer+clefia+C2+MacGuffin+aquare+M6+ICE+SHARK+CS-Cipher+NUSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUSH</t>
+  </si>
+  <si>
+    <t>simon++CS-Cipher+NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+speck+simon+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:
+1:
+1+lucifer?+ICE:
+1+square(byte)+Grand Cru（byte）+Q:
+ICE:
+ICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2+MacGuffin++CS-Cipher:
+6+speck+simon+C2+M6+NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+Lucifer:
+10+speck+C2+M6+NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+lucifer+Q:
+1:
+6+clefia+aria+C2+aquare+SHARK+CS-Cipher+Grand Cru+Q+E2+KHAZAD+Hierocrypt-L1+Hierocrypt-3:
+1:
+MacGuffin:
+ICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+clefia++aquare+SHARK+Grand Cru+KHAZAD+Hierocrypt-L1+ Hierocrypt-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16+speck+simon+Lucifer+clefia+C2+MacGuffin+aquare+M6+ICE+SHARK+CS-Cipher+NUSH+Grand Cru + Q + E2 + KHAZAD + Hierocrypt-L1+ Hierocrypt-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2741,28 +2757,64 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2789,42 +2841,6 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2843,6 +2859,24 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2868,24 +2902,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3998,56 +4014,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="72" t="s">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="70" t="s">
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="71" t="s">
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71" t="s">
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
       <c r="AK1" s="68" t="s">
         <v>87</v>
       </c>
@@ -4067,16 +4083,16 @@
       </c>
       <c r="AT1" s="69"/>
       <c r="AU1" s="69"/>
-      <c r="AV1" s="66" t="s">
+      <c r="AV1" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66" t="s">
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
       <c r="BB1" s="65" t="s">
         <v>133</v>
       </c>
@@ -4088,47 +4104,47 @@
       <c r="BF1" s="65"/>
     </row>
     <row r="2" spans="1:58" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70" t="s">
+      <c r="S2" s="71"/>
+      <c r="T2" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="70"/>
+      <c r="U2" s="71"/>
       <c r="V2" s="22" t="s">
         <v>86</v>
       </c>
@@ -4138,21 +4154,21 @@
       <c r="X2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71" t="s">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71" t="s">
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="23" t="s">
         <v>73</v>
       </c>
@@ -4189,20 +4205,20 @@
       <c r="AU2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="66" t="s">
+      <c r="AV2" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="66"/>
+      <c r="AW2" s="67"/>
       <c r="AX2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AY2" s="66" t="s">
+      <c r="AY2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="AZ2" s="66" t="s">
+      <c r="AZ2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="66" t="s">
+      <c r="BA2" s="67" t="s">
         <v>75</v>
       </c>
       <c r="BB2" s="65" t="s">
@@ -4222,7 +4238,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="21" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
@@ -4262,9 +4278,9 @@
       <c r="N3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
       <c r="R3" s="22" t="s">
         <v>78</v>
       </c>
@@ -4340,9 +4356,9 @@
       <c r="AX3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
       <c r="BB3" s="65"/>
       <c r="BC3" s="65"/>
       <c r="BD3" s="65"/>
@@ -5346,6 +5362,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="BD2:BD3"/>
     <mergeCell ref="BE2:BE3"/>
     <mergeCell ref="BF2:BF3"/>
@@ -5362,35 +5407,6 @@
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5421,53 +5437,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="90" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="83" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -5490,7 +5506,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="7" t="s">
         <v>241</v>
       </c>
@@ -5505,7 +5521,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="7" t="s">
         <v>242</v>
       </c>
@@ -5520,7 +5536,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
@@ -5535,7 +5551,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="83" t="s">
         <v>245</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -5547,11 +5563,11 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
+      <c r="G7" s="86"/>
+      <c r="H7" s="86" t="s">
         <v>267</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -5562,7 +5578,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="7" t="s">
         <v>244</v>
       </c>
@@ -5572,9 +5588,9 @@
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="11" t="s">
         <v>278</v>
       </c>
@@ -5583,7 +5599,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="83" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -5615,7 +5631,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="7" t="s">
         <v>247</v>
       </c>
@@ -5642,7 +5658,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="7" t="s">
         <v>248</v>
       </c>
@@ -5672,10 +5688,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="75"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
@@ -5696,10 +5712,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
@@ -5717,10 +5733,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="75"/>
       <c r="F14" s="10" t="s">
         <v>514</v>
       </c>
@@ -5738,10 +5754,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
@@ -5756,7 +5772,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="76" t="s">
         <v>292</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -5780,7 +5796,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="15" t="s">
         <v>296</v>
       </c>
@@ -5803,16 +5819,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -5821,6 +5827,16 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -5842,7 +5858,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -5861,53 +5877,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="90" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="1:10" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="83" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -5917,7 +5933,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>266</v>
@@ -5930,7 +5946,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="7" t="s">
         <v>241</v>
       </c>
@@ -5945,12 +5961,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="7" t="s">
         <v>242</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>266</v>
@@ -5963,15 +5979,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>266</v>
@@ -5984,7 +5997,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="83" t="s">
         <v>143</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -5996,11 +6009,11 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
+      <c r="G7" s="86"/>
+      <c r="H7" s="86" t="s">
         <v>267</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -6011,7 +6024,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="7" t="s">
         <v>244</v>
       </c>
@@ -6021,9 +6034,9 @@
       <c r="D8" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="11" t="s">
         <v>278</v>
       </c>
@@ -6031,8 +6044,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -6042,7 +6055,7 @@
         <v>0.68888888888888899</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>266</v>
@@ -6064,7 +6077,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="7" t="s">
         <v>247</v>
       </c>
@@ -6094,7 +6107,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="7" t="s">
         <v>248</v>
       </c>
@@ -6123,19 +6136,19 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+    <row r="12" spans="1:10" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="75"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>267</v>
@@ -6147,16 +6160,16 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+    <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -6169,15 +6182,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="75"/>
       <c r="F14" s="10" t="s">
         <v>515</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>266</v>
@@ -6190,15 +6203,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
+      <c r="D15" s="6" t="s">
+        <v>519</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>278</v>
@@ -6208,7 +6221,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="76" t="s">
         <v>292</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -6232,7 +6245,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="15" t="s">
         <v>296</v>
       </c>
@@ -6255,11 +6268,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -6273,6 +6281,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -6322,83 +6335,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="112" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="100" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="106" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="102"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="113" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="100" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="106" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="100" t="s">
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="102"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="108"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="56" t="s">
         <v>328</v>
       </c>
@@ -6467,7 +6480,7 @@
       <c r="B4" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="100" t="s">
         <v>401</v>
       </c>
       <c r="D4" s="57" t="s">
@@ -6522,7 +6535,7 @@
     <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="95"/>
       <c r="B5" s="98"/>
-      <c r="C5" s="110"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="57" t="s">
         <v>404</v>
       </c>
@@ -6575,7 +6588,7 @@
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="95"/>
       <c r="B6" s="98"/>
-      <c r="C6" s="110"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="57" t="s">
         <v>410</v>
       </c>
@@ -6628,7 +6641,7 @@
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="95"/>
       <c r="B7" s="98"/>
-      <c r="C7" s="110"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -6657,7 +6670,7 @@
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="96"/>
       <c r="B8" s="99"/>
-      <c r="C8" s="111"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -7094,7 +7107,7 @@
       <c r="AA18" s="55"/>
     </row>
     <row r="19" spans="1:27" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="103" t="s">
         <v>502</v>
       </c>
       <c r="B19" s="97" t="s">
@@ -7165,7 +7178,7 @@
       <c r="AA19" s="55"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="98"/>
       <c r="C20" s="98"/>
       <c r="D20" s="57" t="s">
@@ -7230,7 +7243,7 @@
       <c r="AA20" s="55"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="98"/>
       <c r="C21" s="98"/>
       <c r="D21" s="57" t="s">
@@ -7277,7 +7290,7 @@
       <c r="AA21" s="55"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="98"/>
       <c r="C22" s="98"/>
       <c r="D22" s="57" t="s">
@@ -7312,7 +7325,7 @@
       <c r="AA22" s="55"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="99"/>
       <c r="C23" s="99"/>
       <c r="D23" s="57"/>
@@ -8113,24 +8126,6 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D2:L2"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="A34:A38"/>
@@ -8142,6 +8137,24 @@
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B24:B28"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -8299,17 +8312,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/统计A.xlsx
+++ b/统计A.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计_新" sheetId="3" r:id="rId1"/>
     <sheet name="算子统计_新" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
-    <sheet name="算子统计" sheetId="2" r:id="rId5"/>
-    <sheet name="算法统计" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="算子统计" sheetId="2" r:id="rId4"/>
+    <sheet name="算法统计" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="加入新算法" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="642">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2208,6 +2209,416 @@
   </si>
   <si>
     <t>16+speck+simon+Lucifer+clefia+C2+MacGuffin+aquare+M6+ICE+SHARK+CS-Cipher+NUSH+Grand Cru + Q + E2 + KHAZAD + Hierocrypt-L1+ Hierocrypt-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAST128 GOST RC5 TWOFISH SM4 RC6 SERPENT TEA XTEA SIMON C2 MACGUFFIN M6 CS_CIPHER NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 RC6 SERPENT TEA C2 MACGUFFIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST TEA C2 </t>
+  </si>
+  <si>
+    <t>SH XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6 C2 </t>
+  </si>
+  <si>
+    <t>7:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 XTEA </t>
+  </si>
+  <si>
+    <t>SH AND</t>
+  </si>
+  <si>
+    <t>SIMON CS_CIPHER</t>
+  </si>
+  <si>
+    <t>SH AND XOR</t>
+  </si>
+  <si>
+    <t>2:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON CS_CIPHER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA BLOWFISH CAST128 GOST RC5 SEED TWOFISH RC6 SERPENT TEA XTEA SPECK LUCIFER C2 M6 NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA BLOWFISH CAST128 RC5 SEED TWOFISH TEA XTEA SPECK C2 M6 NUSH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TWOFISH TEA C2 M6 </t>
+  </si>
+  <si>
+    <t>5:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOWFISH SEED TWOFISH SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 TEA XTEA M6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAST128 XTEA NUSH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 SERPENT M6 NUSH </t>
+  </si>
+  <si>
+    <t>4:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA CAST128 GOST SEED TWOFISH SM4 SERPENT SKIPJECT LUCIFER CLEFIA ARIA C2 PRESENT MACGUFFIN SQUARE ICE SHARK CS_CIPHER GRAND_CRU Q E2 KHAZAD HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA CAST128 SEED SKIPJECT LUCIFER MACGUFFIN CS_CIPHER Q E2 KHAZAD </t>
+  </si>
+  <si>
+    <t>10：27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SKIPJECT LUCIFER E2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SKIPJECT E2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 SERPENT C2 </t>
+  </si>
+  <si>
+    <t>4：27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 C2 </t>
+  </si>
+  <si>
+    <t>MACGUFFIN CS_CIPHER</t>
+  </si>
+  <si>
+    <t>LUT XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES GRAND_CRU </t>
+  </si>
+  <si>
+    <t>2:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES TWOFISH CLEFIA ARIA SQUARE SHARK GRAND_CRU KHAZAD HIEROCRYPT_L1 HIEROCRYPT_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES CLEFIA ARIA SQUARE SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFM XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEFIA </t>
+  </si>
+  <si>
+    <t>DES PRESENT SQUARE ICE GRAND_CRU Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES PRESENT ICE GRAND_CRU Q</t>
+  </si>
+  <si>
+    <t>5:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER XOR BR</t>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES CAMELLIA SPECK GRAND_CRU Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES GRAND_CRU</t>
+  </si>
+  <si>
+    <t>2:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR MAS</t>
+  </si>
+  <si>
+    <t>SPECK</t>
+  </si>
+  <si>
+    <t>BR PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR GFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 TWOFISH RC6 TEA XTEA SIMON C2 MACGUFFIN M6 CS_CIPHER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM4 SERPENT C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH SIMON </t>
+  </si>
+  <si>
+    <t>1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAST128 GOST SEED TEA XTEA LUCIFER C2 NUSH </t>
+  </si>
+  <si>
+    <t>9:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 RC6 SERPENT XTEA M6 </t>
+  </si>
+  <si>
+    <t>5:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5 RC6 XTEA M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TEA C2 </t>
+  </si>
+  <si>
+    <t>GOST TEA C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA SEED SM4 SERPENT SKIPJECT CLEFIA ARIA C2 PRESENT MACGUFFIN ICE SHARK CS_CIPHER GRAND_CRU Q E2 HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED SM4 SKIPJECT CLEFIA E2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEED SM4 SKIPJECT E2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SEED LUCIFER </t>
+  </si>
+  <si>
+    <t>3:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR GFM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAZAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES SQUARE ICE Q </t>
+  </si>
+  <si>
+    <t>4:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR BR PER</t>
+  </si>
+  <si>
+    <t>1:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE </t>
+  </si>
+  <si>
+    <t>1:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SPECK Q </t>
+  </si>
+  <si>
+    <t>3:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SPECK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH CLEFIA ARIA SQUARE SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+  </si>
+  <si>
+    <t>7:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT GFM（1.32）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR LUT GFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEFIA ARIA SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+  </si>
+  <si>
+    <t>5:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED TWOFISH SM4 SKIPJECT SPECK SIMON LUCIFER CLEFIA E2 </t>
+  </si>
+  <si>
+    <t>36:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SM4 SKIPJECT SIMON E2 </t>
+  </si>
+  <si>
+    <t>SM4 SKIPJECT E2</t>
+  </si>
+  <si>
+    <t>3:36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2560,7 +2971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2754,32 +3165,86 @@
     <xf numFmtId="49" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2793,54 +3258,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2859,6 +3276,33 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2877,35 +3321,53 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3122,116 +3584,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="2019300"/>
-          <a:ext cx="3314700" cy="2628900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>特定算法优化支持：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AES</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>X2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>有限域乘法优化</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RC6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>*2+1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
@@ -3385,7 +3737,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3487,7 +3839,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3648,6 +4000,273 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="2019300"/>
+          <a:ext cx="3314700" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>特定算法优化支持：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>X2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有限域乘法优化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RC6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*2+1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2162736</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12623426"/>
+          <a:ext cx="5791761" cy="3166222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>XOR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：抑或</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：移位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MAS:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模加</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：模乘</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GFM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：有限域乘法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：字节移位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LUT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：查找表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：置换</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表格整理了每一种算子的前缀算子和后缀算子，以及出现的概率，在缺定架构时根据这些信息确定一种算子前后的功能</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4014,137 +4633,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="21" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="71" t="s">
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="70" t="s">
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="68" t="s">
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68" t="s">
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="69" t="s">
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69" t="s">
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="67" t="s">
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67" t="s">
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="65" t="s">
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65" t="s">
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
     </row>
     <row r="2" spans="1:58" s="21" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="72"/>
+      <c r="T2" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="71"/>
+      <c r="U2" s="72"/>
       <c r="V2" s="22" t="s">
         <v>86</v>
       </c>
@@ -4154,21 +4773,21 @@
       <c r="X2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="70" t="s">
+      <c r="Y2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70" t="s">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70" t="s">
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
       <c r="AH2" s="23" t="s">
         <v>73</v>
       </c>
@@ -4178,67 +4797,67 @@
       <c r="AJ2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" s="68" t="s">
+      <c r="AK2" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68" t="s">
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="AO2" s="68" t="s">
+      <c r="AO2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="AP2" s="68" t="s">
+      <c r="AP2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="AQ2" s="69" t="s">
+      <c r="AQ2" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69" t="s">
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="69" t="s">
+      <c r="AU2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="67" t="s">
+      <c r="AV2" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="67"/>
+      <c r="AW2" s="68"/>
       <c r="AX2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AY2" s="67" t="s">
+      <c r="AY2" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="AZ2" s="67" t="s">
+      <c r="AZ2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="67" t="s">
+      <c r="BA2" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="BB2" s="65" t="s">
+      <c r="BB2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="65" t="s">
+      <c r="BC2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="BD2" s="65" t="s">
+      <c r="BD2" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="BE2" s="65" t="s">
+      <c r="BE2" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="BF2" s="65" t="s">
+      <c r="BF2" s="67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="21" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
@@ -4278,9 +4897,9 @@
       <c r="N3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
       <c r="R3" s="22" t="s">
         <v>78</v>
       </c>
@@ -4335,18 +4954,18 @@
       <c r="AM3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
       <c r="AQ3" s="29" t="s">
         <v>295</v>
       </c>
       <c r="AR3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
       <c r="AV3" s="24" t="s">
         <v>84</v>
       </c>
@@ -4356,14 +4975,14 @@
       <c r="AX3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
     </row>
     <row r="4" spans="1:58" s="42" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="48"/>
@@ -5362,12 +5981,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -5384,29 +6020,12 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5419,7 +6038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -5437,53 +6056,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="91" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="78"/>
+      <c r="H1" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="80" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="91"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="89" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -5506,7 +6125,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="7" t="s">
         <v>241</v>
       </c>
@@ -5521,7 +6140,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="7" t="s">
         <v>242</v>
       </c>
@@ -5536,7 +6155,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
@@ -5551,7 +6170,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="89" t="s">
         <v>245</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -5563,11 +6182,11 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76" t="s">
         <v>267</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -5578,7 +6197,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="7" t="s">
         <v>244</v>
       </c>
@@ -5588,9 +6207,9 @@
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="11" t="s">
         <v>278</v>
       </c>
@@ -5599,7 +6218,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -5631,7 +6250,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="7" t="s">
         <v>247</v>
       </c>
@@ -5658,7 +6277,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="7" t="s">
         <v>248</v>
       </c>
@@ -5688,10 +6307,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="93"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
@@ -5712,10 +6331,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="6">
         <v>32</v>
       </c>
@@ -5733,10 +6352,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="93"/>
       <c r="F14" s="10" t="s">
         <v>514</v>
       </c>
@@ -5754,10 +6373,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="6">
         <v>32</v>
       </c>
@@ -5772,7 +6391,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="94" t="s">
         <v>292</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -5796,7 +6415,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="15" t="s">
         <v>296</v>
       </c>
@@ -5819,6 +6438,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -5827,16 +6456,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -5855,459 +6474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="14"/>
-    <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="47.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="9" style="12"/>
-    <col min="11" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-    </row>
-    <row r="3" spans="1:10" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="6">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
-      <c r="B5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="6">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
-      <c r="B8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.68888888888888899</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
-      <c r="B10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="6">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.68888888888888899</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="D12" s="6">
-        <v>10</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="6">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="F14" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="6">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" s="16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="16">
-        <v>32</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E31 I3:I22 H3:H21">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E34">
-      <formula1>"是 否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6335,83 +6505,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="108" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="106" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="108"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="104"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="102" t="s">
         <v>332</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="106" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="102" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="106" t="s">
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="108"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="104"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="56" t="s">
         <v>328</v>
       </c>
@@ -6474,13 +6644,13 @@
       <c r="AA3" s="52"/>
     </row>
     <row r="4" spans="1:27" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="99" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="111" t="s">
         <v>401</v>
       </c>
       <c r="D4" s="57" t="s">
@@ -6533,9 +6703,9 @@
       <c r="AA4" s="55"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="101"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="57" t="s">
         <v>404</v>
       </c>
@@ -6586,9 +6756,9 @@
       <c r="AA5" s="55"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="101"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="57" t="s">
         <v>410</v>
       </c>
@@ -6639,9 +6809,9 @@
       <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="101"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -6668,9 +6838,9 @@
       <c r="AA7" s="55"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -6697,13 +6867,13 @@
       <c r="AA8" s="55"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="96" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="99" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="99" t="s">
         <v>355</v>
       </c>
       <c r="D9" s="57" t="s">
@@ -6744,9 +6914,9 @@
       <c r="AA9" s="55"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
@@ -6773,9 +6943,9 @@
       <c r="AA10" s="55"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
@@ -6802,9 +6972,9 @@
       <c r="AA11" s="55"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -6831,9 +7001,9 @@
       <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
@@ -6860,13 +7030,13 @@
       <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="99" t="s">
         <v>375</v>
       </c>
       <c r="D14" s="57" t="s">
@@ -6925,9 +7095,9 @@
       <c r="AA14" s="55"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="57" t="s">
         <v>384</v>
       </c>
@@ -6978,9 +7148,9 @@
       <c r="AA15" s="55"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="57" t="s">
         <v>503</v>
       </c>
@@ -7031,9 +7201,9 @@
       <c r="AA16" s="55"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="95"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="57" t="s">
         <v>398</v>
       </c>
@@ -7078,9 +7248,9 @@
       <c r="AA17" s="55"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="57"/>
@@ -7107,13 +7277,13 @@
       <c r="AA18" s="55"/>
     </row>
     <row r="19" spans="1:27" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="114" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="99" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="99" t="s">
         <v>287</v>
       </c>
       <c r="D19" s="57" t="s">
@@ -7178,9 +7348,9 @@
       <c r="AA19" s="55"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="57" t="s">
         <v>363</v>
       </c>
@@ -7243,9 +7413,9 @@
       <c r="AA20" s="55"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="57" t="s">
         <v>369</v>
       </c>
@@ -7290,9 +7460,9 @@
       <c r="AA21" s="55"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="57" t="s">
         <v>372</v>
       </c>
@@ -7325,9 +7495,9 @@
       <c r="AA22" s="55"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -7354,13 +7524,13 @@
       <c r="AA23" s="55"/>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="99" t="s">
         <v>340</v>
       </c>
       <c r="D24" s="57" t="s">
@@ -7401,9 +7571,9 @@
       <c r="AA24" s="55"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="95"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
@@ -7430,9 +7600,9 @@
       <c r="AA25" s="55"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="95"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
@@ -7459,9 +7629,9 @@
       <c r="AA26" s="55"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="95"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
@@ -7488,9 +7658,9 @@
       <c r="AA27" s="55"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="96"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
@@ -7517,13 +7687,13 @@
       <c r="AA28" s="55"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="99" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="99" t="s">
         <v>276</v>
       </c>
       <c r="D29" s="57" t="s">
@@ -7564,9 +7734,9 @@
       <c r="AA29" s="55"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="95"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
@@ -7593,9 +7763,9 @@
       <c r="AA30" s="55"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="95"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
@@ -7622,9 +7792,9 @@
       <c r="AA31" s="55"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="95"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="57"/>
@@ -7651,9 +7821,9 @@
       <c r="AA32" s="55"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
@@ -7680,13 +7850,13 @@
       <c r="AA33" s="55"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="96" t="s">
         <v>338</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="99" t="s">
         <v>340</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -7751,9 +7921,9 @@
       <c r="AA34" s="55"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="57" t="s">
         <v>395</v>
       </c>
@@ -7804,9 +7974,9 @@
       <c r="AA35" s="55"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="95"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
@@ -7833,9 +8003,9 @@
       <c r="AA36" s="55"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="95"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
@@ -7862,9 +8032,9 @@
       <c r="AA37" s="55"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="96"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
@@ -8126,6 +8296,24 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="A34:A38"/>
@@ -8137,24 +8325,6 @@
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -8168,7 +8338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -8189,44 +8359,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115" t="s">
+      <c r="E1" s="117"/>
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="117" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8239,14 +8409,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
@@ -8312,17 +8482,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8331,7 +8501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
@@ -8547,4 +8717,2381 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14"/>
+    <col min="6" max="6" width="13.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="47.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="9" style="11"/>
+    <col min="10" max="10" width="9" style="12"/>
+    <col min="11" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="84"/>
+      <c r="E1" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="81"/>
+      <c r="F2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="90"/>
+      <c r="B4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="90"/>
+      <c r="B5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91"/>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="91"/>
+      <c r="B8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="83"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="90"/>
+      <c r="B10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="91"/>
+      <c r="B11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="6">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="F14" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="6">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="95"/>
+      <c r="B17" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="16">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E31 I3:I22 H3:H21">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E34">
+      <formula1>"是 否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="51"/>
+    <col min="2" max="2" width="30.5" style="51" customWidth="1"/>
+    <col min="3" max="3" width="7" style="51" customWidth="1"/>
+    <col min="4" max="4" width="9" style="51"/>
+    <col min="5" max="5" width="37.25" style="51" customWidth="1"/>
+    <col min="6" max="6" width="9" style="51"/>
+    <col min="7" max="7" width="11.875" style="51" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="123" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="15" style="51" customWidth="1"/>
+    <col min="12" max="13" width="9" style="51"/>
+    <col min="14" max="14" width="24.5" style="51" customWidth="1"/>
+    <col min="15" max="15" width="9" style="51"/>
+    <col min="16" max="16" width="14.25" style="51" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="51" customWidth="1"/>
+    <col min="18" max="18" width="9" style="123"/>
+    <col min="19" max="19" width="16.5" style="51" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="51" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="104"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="106"/>
+      <c r="B2" s="109" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="104"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="107"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="I3" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="R3" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+    </row>
+    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>532</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="I4" s="128">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>594</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>595</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="R4" s="129">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="97"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>530</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>533</v>
+      </c>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="R5" s="129">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>540</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>536</v>
+      </c>
+      <c r="I6" s="128">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>597</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>599</v>
+      </c>
+      <c r="R6" s="129">
+        <v>9.375E-2</v>
+      </c>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="97"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>541</v>
+      </c>
+      <c r="I7" s="128">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>545</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>600</v>
+      </c>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="97"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>542</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>543</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>548</v>
+      </c>
+      <c r="I14" s="128">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="N14" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="R14" s="129">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>548</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>549</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>550</v>
+      </c>
+      <c r="I15" s="128">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="R15" s="129">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+    </row>
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>551</v>
+      </c>
+      <c r="I16" s="128">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="N16" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="O16" s="59" t="s">
+        <v>605</v>
+      </c>
+      <c r="P16" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q16" s="59" t="s">
+        <v>607</v>
+      </c>
+      <c r="R16" s="129">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="I17" s="128">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="R17" s="129">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+    </row>
+    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>558</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="I19" s="128">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>609</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>611</v>
+      </c>
+      <c r="R19" s="129">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="S19" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="T19" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="U19" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="115"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>563</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="I20" s="128">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="M20" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>614</v>
+      </c>
+      <c r="P20" s="59" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="R20" s="129">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="S20" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="T20" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="115"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="I21" s="128">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="115"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="116"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="96" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>572</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>573</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>576</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="I24" s="128">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="P24" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>634</v>
+      </c>
+      <c r="R24" s="129">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="97"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="59" t="s">
+        <v>618</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>619</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+    </row>
+    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="97"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="130" t="s">
+        <v>632</v>
+      </c>
+      <c r="N26" s="131" t="s">
+        <v>630</v>
+      </c>
+      <c r="O26" s="131" t="s">
+        <v>631</v>
+      </c>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="97"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="98"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="96" t="s">
+        <v>511</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>580</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>581</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>582</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="I29" s="128">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>620</v>
+      </c>
+      <c r="O29" s="59" t="s">
+        <v>621</v>
+      </c>
+      <c r="P29" s="59" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q29" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="R29" s="129">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="97"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>626</v>
+      </c>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="59" t="s">
+        <v>624</v>
+      </c>
+      <c r="N31" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>623</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="97"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="98"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>584</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>635</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>593</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>585</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>586</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="I34" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="K34" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="L34" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="N34" s="59" t="s">
+        <v>627</v>
+      </c>
+      <c r="O34" s="59" t="s">
+        <v>628</v>
+      </c>
+      <c r="P34" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q34" s="59" t="s">
+        <v>629</v>
+      </c>
+      <c r="R34" s="129">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S34" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="T34" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="U34" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="97"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="I35" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="N35" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="O35" s="59" t="s">
+        <v>586</v>
+      </c>
+      <c r="P35" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q35" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="R35" s="129">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="97"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="119"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="97"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>592</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="98"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+    </row>
+    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="E39" s="64"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="H39" s="63"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+    </row>
+    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="I40" s="132">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="121"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+    </row>
+    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="121"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+    </row>
+    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+    </row>
+    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="53"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>